--- a/Creador de Planillas ETESA/Excel Books/payroll_layout.xlsx
+++ b/Creador de Planillas ETESA/Excel Books/payroll_layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr backupFile="1" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samuel\Desktop\Projects\etesaProject\Creador de Planillas ETESA\Excel Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5F74B4-0C12-4FA1-BA85-1C3E8BA78170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574C1112-B5A1-4CC3-BD8F-E393C8258D26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXTRAS" sheetId="6" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>GERENTE DE PROTECCIÓN Y COMUNICACIONES</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>15 DE AGOSTO</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -1979,6 +1979,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="6" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1991,118 +2008,98 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="6" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2143,110 +2140,203 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="72" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="69" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="63" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="68" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2260,6 +2350,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2272,25 +2383,89 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2306,15 +2481,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2343,12 +2509,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2360,166 +2520,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3107,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AQ461"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3141,26 +3141,26 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
       <c r="M1" s="69"/>
-      <c r="N1" s="270" t="s">
+      <c r="N1" s="219" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="271"/>
-      <c r="P1" s="271"/>
-      <c r="Q1" s="271"/>
-      <c r="R1" s="271"/>
-      <c r="S1" s="271"/>
-      <c r="T1" s="271"/>
-      <c r="U1" s="271"/>
-      <c r="V1" s="271"/>
-      <c r="W1" s="271"/>
-      <c r="X1" s="271"/>
-      <c r="Y1" s="271"/>
-      <c r="Z1" s="271"/>
-      <c r="AA1" s="271"/>
-      <c r="AB1" s="271"/>
-      <c r="AC1" s="271"/>
-      <c r="AD1" s="271"/>
-      <c r="AE1" s="271"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
       <c r="AF1" s="69"/>
       <c r="AG1" s="69"/>
       <c r="AH1" s="69"/>
@@ -3174,24 +3174,24 @@
       <c r="K2" s="69"/>
       <c r="L2" s="69"/>
       <c r="M2" s="69"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-      <c r="P2" s="271"/>
-      <c r="Q2" s="271"/>
-      <c r="R2" s="271"/>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
-      <c r="X2" s="271"/>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="271"/>
-      <c r="AA2" s="271"/>
-      <c r="AB2" s="271"/>
-      <c r="AC2" s="271"/>
-      <c r="AD2" s="271"/>
-      <c r="AE2" s="271"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="220"/>
+      <c r="AA2" s="220"/>
+      <c r="AB2" s="220"/>
+      <c r="AC2" s="220"/>
+      <c r="AD2" s="220"/>
+      <c r="AE2" s="220"/>
       <c r="AF2" s="69"/>
       <c r="AG2" s="69"/>
       <c r="AH2" s="69"/>
@@ -3205,25 +3205,25 @@
       <c r="K3" s="69"/>
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
-      <c r="N3" s="272" t="s">
+      <c r="N3" s="221" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="272"/>
-      <c r="P3" s="272"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
-      <c r="AD3" s="272"/>
+      <c r="O3" s="221"/>
+      <c r="P3" s="221"/>
+      <c r="Q3" s="221"/>
+      <c r="R3" s="221"/>
+      <c r="S3" s="221"/>
+      <c r="T3" s="221"/>
+      <c r="U3" s="221"/>
+      <c r="V3" s="221"/>
+      <c r="W3" s="221"/>
+      <c r="X3" s="221"/>
+      <c r="Y3" s="221"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
       <c r="AE3" s="69"/>
       <c r="AF3" s="207"/>
       <c r="AG3" s="207"/>
@@ -3381,8 +3381,8 @@
       <c r="AC7" s="72"/>
       <c r="AD7" s="73"/>
       <c r="AE7" s="70"/>
-      <c r="AF7" s="282"/>
-      <c r="AG7" s="282"/>
+      <c r="AF7" s="237"/>
+      <c r="AG7" s="237"/>
       <c r="AH7" s="209"/>
       <c r="AI7" s="36"/>
       <c r="AJ7" s="36"/>
@@ -3536,12 +3536,12 @@
     </row>
     <row r="11" spans="2:43" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="133"/>
-      <c r="C11" s="227" t="s">
+      <c r="C11" s="285" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
+      <c r="D11" s="285"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
       <c r="G11" s="175"/>
       <c r="H11" s="173"/>
       <c r="I11" s="173"/>
@@ -3561,14 +3561,14 @@
       </c>
       <c r="V11" s="128"/>
       <c r="W11" s="141"/>
-      <c r="X11" s="228"/>
-      <c r="Y11" s="228"/>
-      <c r="Z11" s="228"/>
-      <c r="AA11" s="228"/>
-      <c r="AB11" s="228"/>
-      <c r="AC11" s="228"/>
-      <c r="AD11" s="228"/>
-      <c r="AE11" s="228"/>
+      <c r="X11" s="238"/>
+      <c r="Y11" s="238"/>
+      <c r="Z11" s="238"/>
+      <c r="AA11" s="238"/>
+      <c r="AB11" s="238"/>
+      <c r="AC11" s="238"/>
+      <c r="AD11" s="238"/>
+      <c r="AE11" s="238"/>
       <c r="AF11" s="128"/>
       <c r="AG11" s="128"/>
       <c r="AH11" s="128"/>
@@ -3584,12 +3584,12 @@
     </row>
     <row r="12" spans="2:43" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="133"/>
-      <c r="C12" s="227" t="s">
+      <c r="C12" s="285" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
+      <c r="D12" s="285"/>
+      <c r="E12" s="285"/>
+      <c r="F12" s="285"/>
       <c r="G12" s="175"/>
       <c r="H12" s="153"/>
       <c r="I12" s="153"/>
@@ -3632,12 +3632,12 @@
     </row>
     <row r="13" spans="2:43" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="133"/>
-      <c r="C13" s="227" t="s">
+      <c r="C13" s="285" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
+      <c r="D13" s="285"/>
+      <c r="E13" s="285"/>
+      <c r="F13" s="285"/>
       <c r="G13" s="175"/>
       <c r="H13" s="173"/>
       <c r="I13" s="173"/>
@@ -3657,20 +3657,20 @@
       </c>
       <c r="V13" s="128"/>
       <c r="W13" s="128"/>
-      <c r="X13" s="228"/>
-      <c r="Y13" s="228"/>
-      <c r="Z13" s="283" t="s">
+      <c r="X13" s="238"/>
+      <c r="Y13" s="238"/>
+      <c r="Z13" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="AA13" s="283"/>
-      <c r="AB13" s="228"/>
-      <c r="AC13" s="228"/>
-      <c r="AD13" s="228"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="228"/>
-      <c r="AG13" s="228"/>
+      <c r="AA13" s="239"/>
+      <c r="AB13" s="238"/>
+      <c r="AC13" s="238"/>
+      <c r="AD13" s="238"/>
+      <c r="AE13" s="238"/>
+      <c r="AF13" s="238"/>
+      <c r="AG13" s="238"/>
       <c r="AH13" s="157" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="AI13" s="36"/>
       <c r="AJ13" s="36"/>
@@ -3728,22 +3728,22 @@
     </row>
     <row r="15" spans="2:43" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="39"/>
-      <c r="C15" s="287" t="s">
+      <c r="C15" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="288"/>
-      <c r="E15" s="288"/>
-      <c r="F15" s="288"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="288"/>
-      <c r="I15" s="288"/>
-      <c r="J15" s="288"/>
-      <c r="K15" s="288"/>
-      <c r="L15" s="288"/>
-      <c r="M15" s="288"/>
-      <c r="N15" s="288"/>
-      <c r="O15" s="288"/>
-      <c r="P15" s="289"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="244"/>
+      <c r="F15" s="244"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="244"/>
+      <c r="O15" s="244"/>
+      <c r="P15" s="245"/>
       <c r="Q15" s="168" t="s">
         <v>45</v>
       </c>
@@ -3820,22 +3820,22 @@
     </row>
     <row r="16" spans="2:43" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="39"/>
-      <c r="C16" s="245" t="s">
+      <c r="C16" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
-      <c r="I16" s="246"/>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
-      <c r="M16" s="246"/>
-      <c r="N16" s="246"/>
-      <c r="O16" s="246"/>
-      <c r="P16" s="247"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="230"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="230"/>
+      <c r="J16" s="230"/>
+      <c r="K16" s="230"/>
+      <c r="L16" s="230"/>
+      <c r="M16" s="230"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="231"/>
       <c r="Q16" s="161" t="s">
         <v>47</v>
       </c>
@@ -3914,20 +3914,20 @@
     </row>
     <row r="17" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="39"/>
-      <c r="C17" s="259"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="260"/>
-      <c r="L17" s="260"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="260"/>
-      <c r="O17" s="260"/>
-      <c r="P17" s="261"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="257"/>
       <c r="Q17" s="143"/>
       <c r="R17" s="144"/>
       <c r="S17" s="144"/>
@@ -3961,20 +3961,20 @@
     </row>
     <row r="18" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="39"/>
-      <c r="C18" s="259"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="260"/>
-      <c r="J18" s="260"/>
-      <c r="K18" s="260"/>
-      <c r="L18" s="260"/>
-      <c r="M18" s="260"/>
-      <c r="N18" s="260"/>
-      <c r="O18" s="260"/>
-      <c r="P18" s="261"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="257"/>
       <c r="Q18" s="143"/>
       <c r="R18" s="144"/>
       <c r="S18" s="144"/>
@@ -4008,20 +4008,20 @@
     </row>
     <row r="19" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="39"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="260"/>
-      <c r="L19" s="260"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="260"/>
-      <c r="O19" s="260"/>
-      <c r="P19" s="261"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="256"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="256"/>
+      <c r="M19" s="256"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="256"/>
+      <c r="P19" s="257"/>
       <c r="Q19" s="148"/>
       <c r="R19" s="144"/>
       <c r="S19" s="144"/>
@@ -4055,20 +4055,20 @@
     </row>
     <row r="20" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="39"/>
-      <c r="C20" s="279"/>
-      <c r="D20" s="280"/>
-      <c r="E20" s="280"/>
-      <c r="F20" s="280"/>
-      <c r="G20" s="280"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="280"/>
-      <c r="J20" s="280"/>
-      <c r="K20" s="280"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="280"/>
-      <c r="N20" s="280"/>
-      <c r="O20" s="280"/>
-      <c r="P20" s="281"/>
+      <c r="C20" s="234"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
+      <c r="J20" s="235"/>
+      <c r="K20" s="235"/>
+      <c r="L20" s="235"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="235"/>
+      <c r="O20" s="235"/>
+      <c r="P20" s="236"/>
       <c r="Q20" s="148"/>
       <c r="R20" s="144"/>
       <c r="S20" s="144"/>
@@ -4102,20 +4102,20 @@
     </row>
     <row r="21" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="39"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="268"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="268"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="268"/>
-      <c r="P21" s="269"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="264"/>
+      <c r="F21" s="264"/>
+      <c r="G21" s="264"/>
+      <c r="H21" s="264"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="264"/>
+      <c r="K21" s="264"/>
+      <c r="L21" s="264"/>
+      <c r="M21" s="264"/>
+      <c r="N21" s="264"/>
+      <c r="O21" s="264"/>
+      <c r="P21" s="265"/>
       <c r="Q21" s="148"/>
       <c r="R21" s="144"/>
       <c r="S21" s="144"/>
@@ -4149,20 +4149,20 @@
     </row>
     <row r="22" spans="2:43" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="39"/>
-      <c r="C22" s="264"/>
-      <c r="D22" s="265"/>
-      <c r="E22" s="265"/>
-      <c r="F22" s="265"/>
-      <c r="G22" s="265"/>
-      <c r="H22" s="265"/>
-      <c r="I22" s="265"/>
-      <c r="J22" s="265"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="265"/>
-      <c r="M22" s="265"/>
-      <c r="N22" s="265"/>
-      <c r="O22" s="265"/>
-      <c r="P22" s="266"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
+      <c r="P22" s="262"/>
       <c r="Q22" s="148" t="s">
         <v>26</v>
       </c>
@@ -4198,20 +4198,20 @@
     </row>
     <row r="23" spans="2:43" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="263"/>
-      <c r="F23" s="263"/>
-      <c r="G23" s="263"/>
-      <c r="H23" s="263"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="263"/>
-      <c r="K23" s="263"/>
-      <c r="L23" s="263"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="263"/>
-      <c r="O23" s="263"/>
-      <c r="P23" s="263"/>
+      <c r="C23" s="258"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="259"/>
+      <c r="F23" s="259"/>
+      <c r="G23" s="259"/>
+      <c r="H23" s="259"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="259"/>
+      <c r="K23" s="259"/>
+      <c r="L23" s="259"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="259"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
       <c r="Q23" s="68"/>
       <c r="R23" s="130"/>
       <c r="S23" s="131"/>
@@ -4242,44 +4242,44 @@
     </row>
     <row r="24" spans="2:43" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="39"/>
-      <c r="C24" s="284" t="s">
+      <c r="C24" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="285"/>
-      <c r="E24" s="285"/>
-      <c r="F24" s="285"/>
-      <c r="G24" s="285"/>
-      <c r="H24" s="285"/>
-      <c r="I24" s="285"/>
-      <c r="J24" s="285"/>
-      <c r="K24" s="285"/>
-      <c r="L24" s="285"/>
-      <c r="M24" s="285"/>
-      <c r="N24" s="285"/>
-      <c r="O24" s="285"/>
-      <c r="P24" s="285"/>
-      <c r="Q24" s="285"/>
-      <c r="R24" s="285"/>
-      <c r="S24" s="285"/>
-      <c r="T24" s="285"/>
-      <c r="U24" s="285"/>
-      <c r="V24" s="285"/>
-      <c r="W24" s="285"/>
-      <c r="X24" s="285"/>
-      <c r="Y24" s="285"/>
-      <c r="Z24" s="285"/>
-      <c r="AA24" s="286"/>
-      <c r="AB24" s="290" t="s">
+      <c r="D24" s="241"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="241"/>
+      <c r="H24" s="241"/>
+      <c r="I24" s="241"/>
+      <c r="J24" s="241"/>
+      <c r="K24" s="241"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
+      <c r="N24" s="241"/>
+      <c r="O24" s="241"/>
+      <c r="P24" s="241"/>
+      <c r="Q24" s="241"/>
+      <c r="R24" s="241"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
+      <c r="U24" s="241"/>
+      <c r="V24" s="241"/>
+      <c r="W24" s="241"/>
+      <c r="X24" s="241"/>
+      <c r="Y24" s="241"/>
+      <c r="Z24" s="241"/>
+      <c r="AA24" s="242"/>
+      <c r="AB24" s="246" t="s">
         <v>50</v>
       </c>
-      <c r="AC24" s="277"/>
-      <c r="AD24" s="277"/>
-      <c r="AE24" s="291"/>
-      <c r="AF24" s="277" t="s">
+      <c r="AC24" s="232"/>
+      <c r="AD24" s="232"/>
+      <c r="AE24" s="247"/>
+      <c r="AF24" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="AG24" s="277"/>
-      <c r="AH24" s="278"/>
+      <c r="AG24" s="232"/>
+      <c r="AH24" s="233"/>
       <c r="AI24" s="36"/>
       <c r="AJ24" s="36"/>
       <c r="AK24" s="36"/>
@@ -4292,38 +4292,38 @@
     </row>
     <row r="25" spans="2:43" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="224"/>
-      <c r="F25" s="224"/>
-      <c r="G25" s="224"/>
-      <c r="H25" s="224"/>
-      <c r="I25" s="224"/>
-      <c r="J25" s="224"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="224"/>
-      <c r="U25" s="224"/>
-      <c r="V25" s="224"/>
-      <c r="W25" s="224"/>
-      <c r="X25" s="224"/>
-      <c r="Y25" s="224"/>
-      <c r="Z25" s="224"/>
-      <c r="AA25" s="225"/>
-      <c r="AB25" s="219"/>
-      <c r="AC25" s="220"/>
-      <c r="AD25" s="220"/>
-      <c r="AE25" s="222"/>
-      <c r="AF25" s="220"/>
-      <c r="AG25" s="220"/>
-      <c r="AH25" s="221"/>
+      <c r="C25" s="248"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="249"/>
+      <c r="I25" s="249"/>
+      <c r="J25" s="249"/>
+      <c r="K25" s="249"/>
+      <c r="L25" s="249"/>
+      <c r="M25" s="249"/>
+      <c r="N25" s="249"/>
+      <c r="O25" s="249"/>
+      <c r="P25" s="249"/>
+      <c r="Q25" s="249"/>
+      <c r="R25" s="249"/>
+      <c r="S25" s="249"/>
+      <c r="T25" s="249"/>
+      <c r="U25" s="249"/>
+      <c r="V25" s="249"/>
+      <c r="W25" s="249"/>
+      <c r="X25" s="249"/>
+      <c r="Y25" s="249"/>
+      <c r="Z25" s="249"/>
+      <c r="AA25" s="250"/>
+      <c r="AB25" s="224"/>
+      <c r="AC25" s="225"/>
+      <c r="AD25" s="225"/>
+      <c r="AE25" s="254"/>
+      <c r="AF25" s="225"/>
+      <c r="AG25" s="225"/>
+      <c r="AH25" s="226"/>
       <c r="AI25" s="36"/>
       <c r="AJ25" s="36"/>
       <c r="AK25" s="36"/>
@@ -4336,38 +4336,38 @@
     </row>
     <row r="26" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="H26" s="224"/>
-      <c r="I26" s="224"/>
-      <c r="J26" s="224"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="224"/>
-      <c r="U26" s="224"/>
-      <c r="V26" s="224"/>
-      <c r="W26" s="224"/>
-      <c r="X26" s="224"/>
-      <c r="Y26" s="224"/>
-      <c r="Z26" s="224"/>
-      <c r="AA26" s="225"/>
-      <c r="AB26" s="219"/>
-      <c r="AC26" s="220"/>
-      <c r="AD26" s="220"/>
-      <c r="AE26" s="222"/>
-      <c r="AF26" s="220"/>
-      <c r="AG26" s="220"/>
-      <c r="AH26" s="221"/>
+      <c r="C26" s="248"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="249"/>
+      <c r="I26" s="249"/>
+      <c r="J26" s="249"/>
+      <c r="K26" s="249"/>
+      <c r="L26" s="249"/>
+      <c r="M26" s="249"/>
+      <c r="N26" s="249"/>
+      <c r="O26" s="249"/>
+      <c r="P26" s="249"/>
+      <c r="Q26" s="249"/>
+      <c r="R26" s="249"/>
+      <c r="S26" s="249"/>
+      <c r="T26" s="249"/>
+      <c r="U26" s="249"/>
+      <c r="V26" s="249"/>
+      <c r="W26" s="249"/>
+      <c r="X26" s="249"/>
+      <c r="Y26" s="249"/>
+      <c r="Z26" s="249"/>
+      <c r="AA26" s="250"/>
+      <c r="AB26" s="224"/>
+      <c r="AC26" s="225"/>
+      <c r="AD26" s="225"/>
+      <c r="AE26" s="254"/>
+      <c r="AF26" s="225"/>
+      <c r="AG26" s="225"/>
+      <c r="AH26" s="226"/>
       <c r="AI26" s="36"/>
       <c r="AJ26" s="36"/>
       <c r="AK26" s="36"/>
@@ -4380,38 +4380,38 @@
     </row>
     <row r="27" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="224"/>
-      <c r="E27" s="224"/>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="H27" s="224"/>
-      <c r="I27" s="224"/>
-      <c r="J27" s="224"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="224"/>
-      <c r="U27" s="224"/>
-      <c r="V27" s="224"/>
-      <c r="W27" s="224"/>
-      <c r="X27" s="224"/>
-      <c r="Y27" s="224"/>
-      <c r="Z27" s="224"/>
-      <c r="AA27" s="225"/>
-      <c r="AB27" s="219"/>
-      <c r="AC27" s="220"/>
-      <c r="AD27" s="220"/>
-      <c r="AE27" s="222"/>
-      <c r="AF27" s="220"/>
-      <c r="AG27" s="220"/>
-      <c r="AH27" s="221"/>
+      <c r="C27" s="248"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="249"/>
+      <c r="I27" s="249"/>
+      <c r="J27" s="249"/>
+      <c r="K27" s="249"/>
+      <c r="L27" s="249"/>
+      <c r="M27" s="249"/>
+      <c r="N27" s="249"/>
+      <c r="O27" s="249"/>
+      <c r="P27" s="249"/>
+      <c r="Q27" s="249"/>
+      <c r="R27" s="249"/>
+      <c r="S27" s="249"/>
+      <c r="T27" s="249"/>
+      <c r="U27" s="249"/>
+      <c r="V27" s="249"/>
+      <c r="W27" s="249"/>
+      <c r="X27" s="249"/>
+      <c r="Y27" s="249"/>
+      <c r="Z27" s="249"/>
+      <c r="AA27" s="250"/>
+      <c r="AB27" s="224"/>
+      <c r="AC27" s="225"/>
+      <c r="AD27" s="225"/>
+      <c r="AE27" s="254"/>
+      <c r="AF27" s="225"/>
+      <c r="AG27" s="225"/>
+      <c r="AH27" s="226"/>
       <c r="AI27" s="36"/>
       <c r="AJ27" s="36"/>
       <c r="AK27" s="36"/>
@@ -4424,38 +4424,38 @@
     </row>
     <row r="28" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="224"/>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="H28" s="224"/>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="224"/>
-      <c r="Q28" s="224"/>
-      <c r="R28" s="224"/>
-      <c r="S28" s="224"/>
-      <c r="T28" s="224"/>
-      <c r="U28" s="224"/>
-      <c r="V28" s="224"/>
-      <c r="W28" s="224"/>
-      <c r="X28" s="224"/>
-      <c r="Y28" s="224"/>
-      <c r="Z28" s="224"/>
-      <c r="AA28" s="225"/>
-      <c r="AB28" s="219"/>
-      <c r="AC28" s="220"/>
-      <c r="AD28" s="220"/>
-      <c r="AE28" s="222"/>
-      <c r="AF28" s="220"/>
-      <c r="AG28" s="220"/>
-      <c r="AH28" s="221"/>
+      <c r="C28" s="248"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="249"/>
+      <c r="I28" s="249"/>
+      <c r="J28" s="249"/>
+      <c r="K28" s="249"/>
+      <c r="L28" s="249"/>
+      <c r="M28" s="249"/>
+      <c r="N28" s="249"/>
+      <c r="O28" s="249"/>
+      <c r="P28" s="249"/>
+      <c r="Q28" s="249"/>
+      <c r="R28" s="249"/>
+      <c r="S28" s="249"/>
+      <c r="T28" s="249"/>
+      <c r="U28" s="249"/>
+      <c r="V28" s="249"/>
+      <c r="W28" s="249"/>
+      <c r="X28" s="249"/>
+      <c r="Y28" s="249"/>
+      <c r="Z28" s="249"/>
+      <c r="AA28" s="250"/>
+      <c r="AB28" s="224"/>
+      <c r="AC28" s="225"/>
+      <c r="AD28" s="225"/>
+      <c r="AE28" s="254"/>
+      <c r="AF28" s="225"/>
+      <c r="AG28" s="225"/>
+      <c r="AH28" s="226"/>
       <c r="AI28" s="36"/>
       <c r="AJ28" s="36"/>
       <c r="AK28" s="36"/>
@@ -4468,38 +4468,38 @@
     </row>
     <row r="29" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="224"/>
-      <c r="F29" s="224"/>
-      <c r="G29" s="224"/>
-      <c r="H29" s="224"/>
-      <c r="I29" s="224"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="224"/>
-      <c r="R29" s="224"/>
-      <c r="S29" s="224"/>
-      <c r="T29" s="224"/>
-      <c r="U29" s="224"/>
-      <c r="V29" s="224"/>
-      <c r="W29" s="224"/>
-      <c r="X29" s="224"/>
-      <c r="Y29" s="224"/>
-      <c r="Z29" s="224"/>
-      <c r="AA29" s="225"/>
-      <c r="AB29" s="219"/>
-      <c r="AC29" s="220"/>
-      <c r="AD29" s="220"/>
-      <c r="AE29" s="222"/>
-      <c r="AF29" s="220"/>
-      <c r="AG29" s="220"/>
-      <c r="AH29" s="221"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="249"/>
+      <c r="I29" s="249"/>
+      <c r="J29" s="249"/>
+      <c r="K29" s="249"/>
+      <c r="L29" s="249"/>
+      <c r="M29" s="249"/>
+      <c r="N29" s="249"/>
+      <c r="O29" s="249"/>
+      <c r="P29" s="249"/>
+      <c r="Q29" s="249"/>
+      <c r="R29" s="249"/>
+      <c r="S29" s="249"/>
+      <c r="T29" s="249"/>
+      <c r="U29" s="249"/>
+      <c r="V29" s="249"/>
+      <c r="W29" s="249"/>
+      <c r="X29" s="249"/>
+      <c r="Y29" s="249"/>
+      <c r="Z29" s="249"/>
+      <c r="AA29" s="250"/>
+      <c r="AB29" s="224"/>
+      <c r="AC29" s="225"/>
+      <c r="AD29" s="225"/>
+      <c r="AE29" s="254"/>
+      <c r="AF29" s="225"/>
+      <c r="AG29" s="225"/>
+      <c r="AH29" s="226"/>
       <c r="AI29" s="36"/>
       <c r="AJ29" s="36"/>
       <c r="AK29" s="36"/>
@@ -4512,38 +4512,38 @@
     </row>
     <row r="30" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="224"/>
-      <c r="Q30" s="224"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="224"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="224"/>
-      <c r="V30" s="224"/>
-      <c r="W30" s="224"/>
-      <c r="X30" s="224"/>
-      <c r="Y30" s="224"/>
-      <c r="Z30" s="224"/>
-      <c r="AA30" s="225"/>
-      <c r="AB30" s="219"/>
-      <c r="AC30" s="220"/>
-      <c r="AD30" s="220"/>
-      <c r="AE30" s="222"/>
-      <c r="AF30" s="219"/>
-      <c r="AG30" s="220"/>
-      <c r="AH30" s="221"/>
+      <c r="C30" s="248"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="249"/>
+      <c r="J30" s="249"/>
+      <c r="K30" s="249"/>
+      <c r="L30" s="249"/>
+      <c r="M30" s="249"/>
+      <c r="N30" s="249"/>
+      <c r="O30" s="249"/>
+      <c r="P30" s="249"/>
+      <c r="Q30" s="249"/>
+      <c r="R30" s="249"/>
+      <c r="S30" s="249"/>
+      <c r="T30" s="249"/>
+      <c r="U30" s="249"/>
+      <c r="V30" s="249"/>
+      <c r="W30" s="249"/>
+      <c r="X30" s="249"/>
+      <c r="Y30" s="249"/>
+      <c r="Z30" s="249"/>
+      <c r="AA30" s="250"/>
+      <c r="AB30" s="224"/>
+      <c r="AC30" s="225"/>
+      <c r="AD30" s="225"/>
+      <c r="AE30" s="254"/>
+      <c r="AF30" s="224"/>
+      <c r="AG30" s="225"/>
+      <c r="AH30" s="226"/>
       <c r="AI30" s="36"/>
       <c r="AJ30" s="36"/>
       <c r="AK30" s="36"/>
@@ -4556,38 +4556,38 @@
     </row>
     <row r="31" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="39"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="224"/>
-      <c r="E31" s="224"/>
-      <c r="F31" s="224"/>
-      <c r="G31" s="224"/>
-      <c r="H31" s="224"/>
-      <c r="I31" s="224"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="224"/>
-      <c r="Q31" s="224"/>
-      <c r="R31" s="224"/>
-      <c r="S31" s="224"/>
-      <c r="T31" s="224"/>
-      <c r="U31" s="224"/>
-      <c r="V31" s="224"/>
-      <c r="W31" s="224"/>
-      <c r="X31" s="224"/>
-      <c r="Y31" s="224"/>
-      <c r="Z31" s="224"/>
-      <c r="AA31" s="225"/>
-      <c r="AB31" s="219"/>
-      <c r="AC31" s="220"/>
-      <c r="AD31" s="220"/>
-      <c r="AE31" s="222"/>
-      <c r="AF31" s="219"/>
-      <c r="AG31" s="220"/>
-      <c r="AH31" s="221"/>
+      <c r="C31" s="248"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="249"/>
+      <c r="H31" s="249"/>
+      <c r="I31" s="249"/>
+      <c r="J31" s="249"/>
+      <c r="K31" s="249"/>
+      <c r="L31" s="249"/>
+      <c r="M31" s="249"/>
+      <c r="N31" s="249"/>
+      <c r="O31" s="249"/>
+      <c r="P31" s="249"/>
+      <c r="Q31" s="249"/>
+      <c r="R31" s="249"/>
+      <c r="S31" s="249"/>
+      <c r="T31" s="249"/>
+      <c r="U31" s="249"/>
+      <c r="V31" s="249"/>
+      <c r="W31" s="249"/>
+      <c r="X31" s="249"/>
+      <c r="Y31" s="249"/>
+      <c r="Z31" s="249"/>
+      <c r="AA31" s="250"/>
+      <c r="AB31" s="224"/>
+      <c r="AC31" s="225"/>
+      <c r="AD31" s="225"/>
+      <c r="AE31" s="254"/>
+      <c r="AF31" s="224"/>
+      <c r="AG31" s="225"/>
+      <c r="AH31" s="226"/>
       <c r="AI31" s="36"/>
       <c r="AJ31" s="36"/>
       <c r="AK31" s="36"/>
@@ -4600,38 +4600,38 @@
     </row>
     <row r="32" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="224"/>
-      <c r="E32" s="224"/>
-      <c r="F32" s="224"/>
-      <c r="G32" s="224"/>
-      <c r="H32" s="224"/>
-      <c r="I32" s="224"/>
-      <c r="J32" s="224"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="224"/>
-      <c r="Q32" s="224"/>
-      <c r="R32" s="224"/>
-      <c r="S32" s="224"/>
-      <c r="T32" s="224"/>
-      <c r="U32" s="224"/>
-      <c r="V32" s="224"/>
-      <c r="W32" s="224"/>
-      <c r="X32" s="224"/>
-      <c r="Y32" s="224"/>
-      <c r="Z32" s="224"/>
-      <c r="AA32" s="225"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="220"/>
-      <c r="AD32" s="220"/>
-      <c r="AE32" s="222"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="220"/>
-      <c r="AH32" s="221"/>
+      <c r="C32" s="248"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="249"/>
+      <c r="H32" s="249"/>
+      <c r="I32" s="249"/>
+      <c r="J32" s="249"/>
+      <c r="K32" s="249"/>
+      <c r="L32" s="249"/>
+      <c r="M32" s="249"/>
+      <c r="N32" s="249"/>
+      <c r="O32" s="249"/>
+      <c r="P32" s="249"/>
+      <c r="Q32" s="249"/>
+      <c r="R32" s="249"/>
+      <c r="S32" s="249"/>
+      <c r="T32" s="249"/>
+      <c r="U32" s="249"/>
+      <c r="V32" s="249"/>
+      <c r="W32" s="249"/>
+      <c r="X32" s="249"/>
+      <c r="Y32" s="249"/>
+      <c r="Z32" s="249"/>
+      <c r="AA32" s="250"/>
+      <c r="AB32" s="224"/>
+      <c r="AC32" s="225"/>
+      <c r="AD32" s="225"/>
+      <c r="AE32" s="254"/>
+      <c r="AF32" s="224"/>
+      <c r="AG32" s="225"/>
+      <c r="AH32" s="226"/>
       <c r="AI32" s="36"/>
       <c r="AJ32" s="36"/>
       <c r="AK32" s="36"/>
@@ -4644,38 +4644,38 @@
     </row>
     <row r="33" spans="2:43" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="39"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="224"/>
-      <c r="F33" s="224"/>
-      <c r="G33" s="224"/>
-      <c r="H33" s="224"/>
-      <c r="I33" s="224"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="224"/>
-      <c r="Q33" s="224"/>
-      <c r="R33" s="224"/>
-      <c r="S33" s="224"/>
-      <c r="T33" s="224"/>
-      <c r="U33" s="224"/>
-      <c r="V33" s="224"/>
-      <c r="W33" s="224"/>
-      <c r="X33" s="224"/>
-      <c r="Y33" s="224"/>
-      <c r="Z33" s="224"/>
-      <c r="AA33" s="225"/>
-      <c r="AB33" s="219"/>
-      <c r="AC33" s="220"/>
-      <c r="AD33" s="220"/>
-      <c r="AE33" s="222"/>
-      <c r="AF33" s="219"/>
-      <c r="AG33" s="220"/>
-      <c r="AH33" s="221"/>
+      <c r="C33" s="248"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="249"/>
+      <c r="H33" s="249"/>
+      <c r="I33" s="249"/>
+      <c r="J33" s="249"/>
+      <c r="K33" s="249"/>
+      <c r="L33" s="249"/>
+      <c r="M33" s="249"/>
+      <c r="N33" s="249"/>
+      <c r="O33" s="249"/>
+      <c r="P33" s="249"/>
+      <c r="Q33" s="249"/>
+      <c r="R33" s="249"/>
+      <c r="S33" s="249"/>
+      <c r="T33" s="249"/>
+      <c r="U33" s="249"/>
+      <c r="V33" s="249"/>
+      <c r="W33" s="249"/>
+      <c r="X33" s="249"/>
+      <c r="Y33" s="249"/>
+      <c r="Z33" s="249"/>
+      <c r="AA33" s="250"/>
+      <c r="AB33" s="224"/>
+      <c r="AC33" s="225"/>
+      <c r="AD33" s="225"/>
+      <c r="AE33" s="254"/>
+      <c r="AF33" s="224"/>
+      <c r="AG33" s="225"/>
+      <c r="AH33" s="226"/>
       <c r="AI33" s="36"/>
       <c r="AJ33" s="36"/>
       <c r="AK33" s="36"/>
@@ -4688,38 +4688,38 @@
     </row>
     <row r="34" spans="2:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="39"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="276"/>
-      <c r="E34" s="276"/>
-      <c r="F34" s="276"/>
-      <c r="G34" s="276"/>
-      <c r="H34" s="276"/>
-      <c r="I34" s="276"/>
-      <c r="J34" s="276"/>
-      <c r="K34" s="276"/>
-      <c r="L34" s="276"/>
-      <c r="M34" s="276"/>
-      <c r="N34" s="276"/>
-      <c r="O34" s="276"/>
-      <c r="P34" s="276"/>
-      <c r="Q34" s="276"/>
-      <c r="R34" s="276"/>
-      <c r="S34" s="276"/>
-      <c r="T34" s="276"/>
-      <c r="U34" s="276"/>
-      <c r="V34" s="276"/>
-      <c r="W34" s="276"/>
-      <c r="X34" s="276"/>
-      <c r="Y34" s="276"/>
-      <c r="Z34" s="276"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="228"/>
+      <c r="K34" s="228"/>
+      <c r="L34" s="228"/>
+      <c r="M34" s="228"/>
+      <c r="N34" s="228"/>
+      <c r="O34" s="228"/>
+      <c r="P34" s="228"/>
+      <c r="Q34" s="228"/>
+      <c r="R34" s="228"/>
+      <c r="S34" s="228"/>
+      <c r="T34" s="228"/>
+      <c r="U34" s="228"/>
+      <c r="V34" s="228"/>
+      <c r="W34" s="228"/>
+      <c r="X34" s="228"/>
+      <c r="Y34" s="228"/>
+      <c r="Z34" s="228"/>
       <c r="AA34" s="158"/>
       <c r="AB34" s="158"/>
       <c r="AC34" s="158"/>
       <c r="AD34" s="158"/>
       <c r="AE34" s="159"/>
-      <c r="AF34" s="273"/>
-      <c r="AG34" s="273"/>
-      <c r="AH34" s="274"/>
+      <c r="AF34" s="222"/>
+      <c r="AG34" s="222"/>
+      <c r="AH34" s="223"/>
       <c r="AI34" s="36"/>
       <c r="AJ34" s="36"/>
       <c r="AK34" s="36"/>
@@ -4732,23 +4732,23 @@
     </row>
     <row r="35" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="36"/>
-      <c r="C35" s="242" t="s">
+      <c r="C35" s="267" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="243"/>
-      <c r="E35" s="243"/>
-      <c r="F35" s="243"/>
-      <c r="G35" s="243"/>
-      <c r="H35" s="243"/>
-      <c r="I35" s="243"/>
-      <c r="J35" s="243"/>
-      <c r="K35" s="243"/>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
-      <c r="N35" s="243"/>
-      <c r="O35" s="243"/>
-      <c r="P35" s="243"/>
-      <c r="Q35" s="244"/>
+      <c r="D35" s="268"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="268"/>
+      <c r="H35" s="268"/>
+      <c r="I35" s="268"/>
+      <c r="J35" s="268"/>
+      <c r="K35" s="268"/>
+      <c r="L35" s="268"/>
+      <c r="M35" s="268"/>
+      <c r="N35" s="268"/>
+      <c r="O35" s="268"/>
+      <c r="P35" s="268"/>
+      <c r="Q35" s="269"/>
       <c r="R35" s="160">
         <v>1</v>
       </c>
@@ -4822,23 +4822,23 @@
     </row>
     <row r="36" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="36"/>
-      <c r="C36" s="245" t="s">
+      <c r="C36" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="246"/>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
-      <c r="G36" s="246"/>
-      <c r="H36" s="246"/>
-      <c r="I36" s="246"/>
-      <c r="J36" s="246"/>
-      <c r="K36" s="246"/>
-      <c r="L36" s="246"/>
-      <c r="M36" s="246"/>
-      <c r="N36" s="246"/>
-      <c r="O36" s="246"/>
-      <c r="P36" s="246"/>
-      <c r="Q36" s="247"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="230"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="230"/>
+      <c r="O36" s="230"/>
+      <c r="P36" s="230"/>
+      <c r="Q36" s="231"/>
       <c r="R36" s="160">
         <v>16</v>
       </c>
@@ -4914,25 +4914,25 @@
     </row>
     <row r="37" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="36"/>
-      <c r="C37" s="238"/>
-      <c r="D37" s="239"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="239"/>
-      <c r="G37" s="239"/>
-      <c r="H37" s="239"/>
-      <c r="I37" s="239"/>
-      <c r="J37" s="239"/>
-      <c r="K37" s="239"/>
-      <c r="L37" s="240"/>
-      <c r="M37" s="235">
+      <c r="C37" s="289"/>
+      <c r="D37" s="290"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="290"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="290"/>
+      <c r="J37" s="290"/>
+      <c r="K37" s="290"/>
+      <c r="L37" s="291"/>
+      <c r="M37" s="278">
         <v>1</v>
       </c>
-      <c r="N37" s="236"/>
-      <c r="O37" s="237"/>
-      <c r="P37" s="251" t="s">
+      <c r="N37" s="279"/>
+      <c r="O37" s="280"/>
+      <c r="P37" s="273" t="s">
         <v>7</v>
       </c>
-      <c r="Q37" s="252"/>
+      <c r="Q37" s="274"/>
       <c r="R37" s="161"/>
       <c r="S37" s="161"/>
       <c r="T37" s="161"/>
@@ -4962,25 +4962,25 @@
     </row>
     <row r="38" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="36"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="230"/>
-      <c r="H38" s="230"/>
-      <c r="I38" s="230"/>
-      <c r="J38" s="230"/>
-      <c r="K38" s="230"/>
-      <c r="L38" s="231"/>
-      <c r="M38" s="235" t="s">
+      <c r="C38" s="251"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="252"/>
+      <c r="I38" s="252"/>
+      <c r="J38" s="252"/>
+      <c r="K38" s="252"/>
+      <c r="L38" s="253"/>
+      <c r="M38" s="278" t="s">
         <v>32</v>
       </c>
-      <c r="N38" s="236"/>
-      <c r="O38" s="237"/>
-      <c r="P38" s="253" t="s">
+      <c r="N38" s="279"/>
+      <c r="O38" s="280"/>
+      <c r="P38" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="252"/>
+      <c r="Q38" s="274"/>
       <c r="R38" s="161"/>
       <c r="S38" s="161"/>
       <c r="T38" s="161"/>
@@ -5010,25 +5010,25 @@
     </row>
     <row r="39" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="36"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="230"/>
-      <c r="H39" s="230"/>
-      <c r="I39" s="230"/>
-      <c r="J39" s="230"/>
-      <c r="K39" s="230"/>
-      <c r="L39" s="231"/>
-      <c r="M39" s="235" t="s">
+      <c r="C39" s="251"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
+      <c r="H39" s="252"/>
+      <c r="I39" s="252"/>
+      <c r="J39" s="252"/>
+      <c r="K39" s="252"/>
+      <c r="L39" s="253"/>
+      <c r="M39" s="278" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="236"/>
-      <c r="O39" s="237"/>
-      <c r="P39" s="253" t="s">
+      <c r="N39" s="279"/>
+      <c r="O39" s="280"/>
+      <c r="P39" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="252"/>
+      <c r="Q39" s="274"/>
       <c r="R39" s="161"/>
       <c r="S39" s="161"/>
       <c r="T39" s="161"/>
@@ -5058,25 +5058,25 @@
     </row>
     <row r="40" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="36"/>
-      <c r="C40" s="229"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="230"/>
-      <c r="H40" s="230"/>
-      <c r="I40" s="230"/>
-      <c r="J40" s="230"/>
-      <c r="K40" s="230"/>
-      <c r="L40" s="231"/>
-      <c r="M40" s="235" t="s">
+      <c r="C40" s="251"/>
+      <c r="D40" s="252"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="252"/>
+      <c r="G40" s="252"/>
+      <c r="H40" s="252"/>
+      <c r="I40" s="252"/>
+      <c r="J40" s="252"/>
+      <c r="K40" s="252"/>
+      <c r="L40" s="253"/>
+      <c r="M40" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="236"/>
-      <c r="O40" s="237"/>
-      <c r="P40" s="253" t="s">
+      <c r="N40" s="279"/>
+      <c r="O40" s="280"/>
+      <c r="P40" s="275" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="252"/>
+      <c r="Q40" s="274"/>
       <c r="R40" s="161"/>
       <c r="S40" s="161"/>
       <c r="T40" s="161"/>
@@ -5106,25 +5106,25 @@
     </row>
     <row r="41" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="36"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="230"/>
-      <c r="I41" s="230"/>
-      <c r="J41" s="230"/>
-      <c r="K41" s="230"/>
-      <c r="L41" s="231"/>
-      <c r="M41" s="235" t="s">
+      <c r="C41" s="251"/>
+      <c r="D41" s="252"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="252"/>
+      <c r="H41" s="252"/>
+      <c r="I41" s="252"/>
+      <c r="J41" s="252"/>
+      <c r="K41" s="252"/>
+      <c r="L41" s="253"/>
+      <c r="M41" s="278" t="s">
         <v>60</v>
       </c>
-      <c r="N41" s="236"/>
-      <c r="O41" s="237"/>
-      <c r="P41" s="253" t="s">
+      <c r="N41" s="279"/>
+      <c r="O41" s="280"/>
+      <c r="P41" s="275" t="s">
         <v>11</v>
       </c>
-      <c r="Q41" s="252"/>
+      <c r="Q41" s="274"/>
       <c r="R41" s="161"/>
       <c r="S41" s="161"/>
       <c r="T41" s="161"/>
@@ -5154,25 +5154,25 @@
     </row>
     <row r="42" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="36"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="230"/>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="230"/>
-      <c r="H42" s="230"/>
-      <c r="I42" s="230"/>
-      <c r="J42" s="230"/>
-      <c r="K42" s="230"/>
-      <c r="L42" s="231"/>
-      <c r="M42" s="235" t="s">
+      <c r="C42" s="251"/>
+      <c r="D42" s="252"/>
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="252"/>
+      <c r="H42" s="252"/>
+      <c r="I42" s="252"/>
+      <c r="J42" s="252"/>
+      <c r="K42" s="252"/>
+      <c r="L42" s="253"/>
+      <c r="M42" s="278" t="s">
         <v>61</v>
       </c>
-      <c r="N42" s="236"/>
-      <c r="O42" s="237"/>
-      <c r="P42" s="253" t="s">
+      <c r="N42" s="279"/>
+      <c r="O42" s="280"/>
+      <c r="P42" s="275" t="s">
         <v>53</v>
       </c>
-      <c r="Q42" s="252"/>
+      <c r="Q42" s="274"/>
       <c r="R42" s="161"/>
       <c r="S42" s="161"/>
       <c r="T42" s="161"/>
@@ -5202,25 +5202,25 @@
     </row>
     <row r="43" spans="2:43" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="36"/>
-      <c r="C43" s="229"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="230"/>
-      <c r="F43" s="230"/>
-      <c r="G43" s="230"/>
-      <c r="H43" s="230"/>
-      <c r="I43" s="230"/>
-      <c r="J43" s="230"/>
-      <c r="K43" s="230"/>
-      <c r="L43" s="231"/>
-      <c r="M43" s="235" t="s">
+      <c r="C43" s="251"/>
+      <c r="D43" s="252"/>
+      <c r="E43" s="252"/>
+      <c r="F43" s="252"/>
+      <c r="G43" s="252"/>
+      <c r="H43" s="252"/>
+      <c r="I43" s="252"/>
+      <c r="J43" s="252"/>
+      <c r="K43" s="252"/>
+      <c r="L43" s="253"/>
+      <c r="M43" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="N43" s="236"/>
-      <c r="O43" s="237"/>
-      <c r="P43" s="253" t="s">
+      <c r="N43" s="279"/>
+      <c r="O43" s="280"/>
+      <c r="P43" s="275" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="252"/>
+      <c r="Q43" s="274"/>
       <c r="R43" s="161"/>
       <c r="S43" s="161"/>
       <c r="T43" s="161"/>
@@ -5250,25 +5250,25 @@
     </row>
     <row r="44" spans="2:43" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="36"/>
-      <c r="C44" s="232"/>
-      <c r="D44" s="233"/>
-      <c r="E44" s="233"/>
-      <c r="F44" s="233"/>
-      <c r="G44" s="233"/>
-      <c r="H44" s="233"/>
-      <c r="I44" s="233"/>
-      <c r="J44" s="233"/>
-      <c r="K44" s="233"/>
-      <c r="L44" s="234"/>
-      <c r="M44" s="256" t="s">
+      <c r="C44" s="286"/>
+      <c r="D44" s="287"/>
+      <c r="E44" s="287"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="287"/>
+      <c r="H44" s="287"/>
+      <c r="I44" s="287"/>
+      <c r="J44" s="287"/>
+      <c r="K44" s="287"/>
+      <c r="L44" s="288"/>
+      <c r="M44" s="281" t="s">
         <v>34</v>
       </c>
-      <c r="N44" s="257"/>
-      <c r="O44" s="258"/>
-      <c r="P44" s="254" t="s">
+      <c r="N44" s="282"/>
+      <c r="O44" s="283"/>
+      <c r="P44" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="255"/>
+      <c r="Q44" s="277"/>
       <c r="R44" s="165"/>
       <c r="S44" s="165"/>
       <c r="T44" s="165"/>
@@ -5298,20 +5298,20 @@
     </row>
     <row r="45" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="36"/>
-      <c r="C45" s="248"/>
-      <c r="D45" s="248"/>
-      <c r="E45" s="248"/>
-      <c r="F45" s="248"/>
-      <c r="G45" s="248"/>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
-      <c r="J45" s="248"/>
-      <c r="K45" s="248"/>
-      <c r="L45" s="248"/>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248"/>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270"/>
+      <c r="E45" s="270"/>
+      <c r="F45" s="270"/>
+      <c r="G45" s="270"/>
+      <c r="H45" s="270"/>
+      <c r="I45" s="270"/>
+      <c r="J45" s="270"/>
+      <c r="K45" s="270"/>
+      <c r="L45" s="270"/>
+      <c r="M45" s="270"/>
+      <c r="N45" s="270"/>
+      <c r="O45" s="270"/>
+      <c r="P45" s="270"/>
       <c r="Q45" s="40"/>
       <c r="R45" s="36"/>
       <c r="S45" s="36"/>
@@ -5342,20 +5342,20 @@
     </row>
     <row r="46" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="36"/>
-      <c r="C46" s="248"/>
-      <c r="D46" s="248"/>
-      <c r="E46" s="248"/>
-      <c r="F46" s="248"/>
-      <c r="G46" s="248"/>
-      <c r="H46" s="248"/>
-      <c r="I46" s="248"/>
-      <c r="J46" s="248"/>
-      <c r="K46" s="248"/>
-      <c r="L46" s="248"/>
-      <c r="M46" s="248"/>
-      <c r="N46" s="248"/>
-      <c r="O46" s="248"/>
-      <c r="P46" s="248"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="270"/>
+      <c r="F46" s="270"/>
+      <c r="G46" s="270"/>
+      <c r="H46" s="270"/>
+      <c r="I46" s="270"/>
+      <c r="J46" s="270"/>
+      <c r="K46" s="270"/>
+      <c r="L46" s="270"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="270"/>
+      <c r="O46" s="270"/>
+      <c r="P46" s="270"/>
       <c r="Q46" s="40"/>
       <c r="R46" s="36"/>
       <c r="S46" s="36"/>
@@ -5386,20 +5386,20 @@
     </row>
     <row r="47" spans="2:43" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="36"/>
-      <c r="C47" s="248"/>
-      <c r="D47" s="248"/>
-      <c r="E47" s="248"/>
-      <c r="F47" s="248"/>
-      <c r="G47" s="248"/>
-      <c r="H47" s="248"/>
-      <c r="I47" s="248"/>
-      <c r="J47" s="248"/>
-      <c r="K47" s="248"/>
-      <c r="L47" s="248"/>
-      <c r="M47" s="248"/>
-      <c r="N47" s="248"/>
-      <c r="O47" s="248"/>
-      <c r="P47" s="248"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270"/>
+      <c r="E47" s="270"/>
+      <c r="F47" s="270"/>
+      <c r="G47" s="270"/>
+      <c r="H47" s="270"/>
+      <c r="I47" s="270"/>
+      <c r="J47" s="270"/>
+      <c r="K47" s="270"/>
+      <c r="L47" s="270"/>
+      <c r="M47" s="270"/>
+      <c r="N47" s="270"/>
+      <c r="O47" s="270"/>
+      <c r="P47" s="270"/>
       <c r="Q47" s="40"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -5430,20 +5430,20 @@
     </row>
     <row r="48" spans="2:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="36"/>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="249"/>
-      <c r="F48" s="249"/>
-      <c r="G48" s="249"/>
-      <c r="H48" s="249"/>
-      <c r="I48" s="249"/>
-      <c r="J48" s="249"/>
-      <c r="K48" s="249"/>
-      <c r="L48" s="249"/>
-      <c r="M48" s="249"/>
-      <c r="N48" s="249"/>
-      <c r="O48" s="249"/>
-      <c r="P48" s="249"/>
+      <c r="C48" s="271"/>
+      <c r="D48" s="271"/>
+      <c r="E48" s="271"/>
+      <c r="F48" s="271"/>
+      <c r="G48" s="271"/>
+      <c r="H48" s="271"/>
+      <c r="I48" s="271"/>
+      <c r="J48" s="271"/>
+      <c r="K48" s="271"/>
+      <c r="L48" s="271"/>
+      <c r="M48" s="271"/>
+      <c r="N48" s="271"/>
+      <c r="O48" s="271"/>
+      <c r="P48" s="271"/>
       <c r="Q48" s="36"/>
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
@@ -5474,32 +5474,32 @@
     </row>
     <row r="49" spans="2:43" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="36"/>
-      <c r="C49" s="250" t="s">
+      <c r="C49" s="272" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="250"/>
-      <c r="E49" s="250"/>
-      <c r="F49" s="250"/>
-      <c r="G49" s="250"/>
-      <c r="H49" s="250"/>
-      <c r="I49" s="250"/>
-      <c r="J49" s="250"/>
-      <c r="K49" s="250"/>
-      <c r="L49" s="250"/>
-      <c r="M49" s="250"/>
-      <c r="N49" s="250"/>
-      <c r="O49" s="250"/>
-      <c r="P49" s="250"/>
+      <c r="D49" s="272"/>
+      <c r="E49" s="272"/>
+      <c r="F49" s="272"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="272"/>
+      <c r="I49" s="272"/>
+      <c r="J49" s="272"/>
+      <c r="K49" s="272"/>
+      <c r="L49" s="272"/>
+      <c r="M49" s="272"/>
+      <c r="N49" s="272"/>
+      <c r="O49" s="272"/>
+      <c r="P49" s="272"/>
       <c r="Q49" s="167"/>
-      <c r="R49" s="226" t="s">
-        <v>69</v>
-      </c>
-      <c r="S49" s="226"/>
-      <c r="T49" s="226"/>
-      <c r="U49" s="226"/>
-      <c r="V49" s="226"/>
-      <c r="W49" s="226"/>
-      <c r="X49" s="226"/>
+      <c r="R49" s="284" t="s">
+        <v>68</v>
+      </c>
+      <c r="S49" s="284"/>
+      <c r="T49" s="284"/>
+      <c r="U49" s="284"/>
+      <c r="V49" s="284"/>
+      <c r="W49" s="284"/>
+      <c r="X49" s="284"/>
       <c r="Y49" s="167"/>
       <c r="Z49" s="202" t="s">
         <v>63</v>
@@ -5569,18 +5569,18 @@
       <c r="AQ50" s="36"/>
     </row>
     <row r="51" spans="2:43" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="241"/>
-      <c r="C51" s="241"/>
-      <c r="D51" s="241"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
-      <c r="H51" s="241"/>
-      <c r="I51" s="241"/>
-      <c r="J51" s="241"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="241"/>
-      <c r="M51" s="241"/>
+      <c r="B51" s="266"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="266"/>
+      <c r="E51" s="266"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="266"/>
+      <c r="H51" s="266"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="266"/>
+      <c r="K51" s="266"/>
+      <c r="L51" s="266"/>
+      <c r="M51" s="266"/>
       <c r="N51" s="46"/>
       <c r="O51" s="46"/>
       <c r="P51" s="46"/>
@@ -10634,6 +10634,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AB31:AE31"/>
+    <mergeCell ref="C29:AA29"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="R49:X49"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="X11:AE11"/>
+    <mergeCell ref="C42:L42"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="B51:M51"/>
+    <mergeCell ref="C35:Q35"/>
+    <mergeCell ref="C36:Q36"/>
+    <mergeCell ref="C45:P48"/>
+    <mergeCell ref="C49:P49"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="AF25:AH25"/>
+    <mergeCell ref="AF27:AH27"/>
+    <mergeCell ref="AF31:AH31"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AB26:AE26"/>
+    <mergeCell ref="AF30:AH30"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AB33:AE33"/>
+    <mergeCell ref="C25:AA25"/>
+    <mergeCell ref="C27:AA27"/>
+    <mergeCell ref="C31:AA31"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="AB25:AE25"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="C18:P18"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="C19:P19"/>
+    <mergeCell ref="C21:P21"/>
+    <mergeCell ref="AB28:AE28"/>
+    <mergeCell ref="C30:AA30"/>
+    <mergeCell ref="AB30:AE30"/>
+    <mergeCell ref="C32:AA32"/>
+    <mergeCell ref="AB32:AE32"/>
+    <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="C26:AA26"/>
     <mergeCell ref="N1:AE2"/>
     <mergeCell ref="N3:AD3"/>
     <mergeCell ref="AF34:AH34"/>
@@ -10650,71 +10715,6 @@
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="AB24:AE24"/>
     <mergeCell ref="C33:AA33"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="AB25:AE25"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="C17:P17"/>
-    <mergeCell ref="C18:P18"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="C19:P19"/>
-    <mergeCell ref="C21:P21"/>
-    <mergeCell ref="AB28:AE28"/>
-    <mergeCell ref="C30:AA30"/>
-    <mergeCell ref="AB30:AE30"/>
-    <mergeCell ref="C32:AA32"/>
-    <mergeCell ref="AB32:AE32"/>
-    <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="C26:AA26"/>
-    <mergeCell ref="AB33:AE33"/>
-    <mergeCell ref="C25:AA25"/>
-    <mergeCell ref="C27:AA27"/>
-    <mergeCell ref="C31:AA31"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="AF25:AH25"/>
-    <mergeCell ref="AF27:AH27"/>
-    <mergeCell ref="AF31:AH31"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AB26:AE26"/>
-    <mergeCell ref="AF30:AH30"/>
-    <mergeCell ref="AF26:AH26"/>
-    <mergeCell ref="B51:M51"/>
-    <mergeCell ref="C35:Q35"/>
-    <mergeCell ref="C36:Q36"/>
-    <mergeCell ref="C45:P48"/>
-    <mergeCell ref="C49:P49"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="R49:X49"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="X11:AE11"/>
-    <mergeCell ref="C42:L42"/>
-    <mergeCell ref="C43:L43"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AB31:AE31"/>
-    <mergeCell ref="C29:AA29"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="AF29:AH29"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0.74803149606299213" top="0.70866141732283472" bottom="0.98425196850393704" header="0.55118110236220474" footer="0.94488188976377963"/>
   <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
@@ -10728,8 +10728,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AU489"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView showZeros="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A9" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -10753,38 +10753,38 @@
       <c r="AH1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="318" t="s">
+      <c r="D2" s="372" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
-      <c r="G2" s="318"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="318"/>
-      <c r="N2" s="318"/>
-      <c r="O2" s="318"/>
-      <c r="P2" s="318"/>
-      <c r="Q2" s="318"/>
-      <c r="R2" s="318"/>
-      <c r="S2" s="318"/>
-      <c r="T2" s="318"/>
-      <c r="U2" s="318"/>
-      <c r="V2" s="318"/>
-      <c r="W2" s="318"/>
-      <c r="X2" s="318"/>
-      <c r="Y2" s="318"/>
-      <c r="Z2" s="318"/>
-      <c r="AA2" s="318"/>
-      <c r="AB2" s="318"/>
-      <c r="AC2" s="318"/>
-      <c r="AD2" s="318"/>
-      <c r="AE2" s="318"/>
-      <c r="AF2" s="318"/>
-      <c r="AG2" s="318"/>
+      <c r="E2" s="372"/>
+      <c r="F2" s="372"/>
+      <c r="G2" s="372"/>
+      <c r="H2" s="372"/>
+      <c r="I2" s="372"/>
+      <c r="J2" s="372"/>
+      <c r="K2" s="372"/>
+      <c r="L2" s="372"/>
+      <c r="M2" s="372"/>
+      <c r="N2" s="372"/>
+      <c r="O2" s="372"/>
+      <c r="P2" s="372"/>
+      <c r="Q2" s="372"/>
+      <c r="R2" s="372"/>
+      <c r="S2" s="372"/>
+      <c r="T2" s="372"/>
+      <c r="U2" s="372"/>
+      <c r="V2" s="372"/>
+      <c r="W2" s="372"/>
+      <c r="X2" s="372"/>
+      <c r="Y2" s="372"/>
+      <c r="Z2" s="372"/>
+      <c r="AA2" s="372"/>
+      <c r="AB2" s="372"/>
+      <c r="AC2" s="372"/>
+      <c r="AD2" s="372"/>
+      <c r="AE2" s="372"/>
+      <c r="AF2" s="372"/>
+      <c r="AG2" s="372"/>
       <c r="AH2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10838,19 +10838,19 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
-      <c r="S4" s="340" t="s">
+      <c r="S4" s="353" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="341"/>
-      <c r="U4" s="341"/>
-      <c r="V4" s="341"/>
-      <c r="W4" s="341"/>
-      <c r="X4" s="341"/>
-      <c r="Y4" s="341"/>
-      <c r="Z4" s="341"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="341"/>
-      <c r="AC4" s="342"/>
+      <c r="T4" s="354"/>
+      <c r="U4" s="354"/>
+      <c r="V4" s="354"/>
+      <c r="W4" s="354"/>
+      <c r="X4" s="354"/>
+      <c r="Y4" s="354"/>
+      <c r="Z4" s="354"/>
+      <c r="AA4" s="354"/>
+      <c r="AB4" s="354"/>
+      <c r="AC4" s="355"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="206"/>
       <c r="AF4" s="206"/>
@@ -10880,22 +10880,22 @@
       <c r="S5" s="8">
         <v>1</v>
       </c>
-      <c r="T5" s="343">
+      <c r="T5" s="356">
         <v>2</v>
       </c>
-      <c r="U5" s="344"/>
-      <c r="V5" s="325">
+      <c r="U5" s="357"/>
+      <c r="V5" s="376">
         <v>3</v>
       </c>
-      <c r="W5" s="325"/>
-      <c r="X5" s="325"/>
-      <c r="Y5" s="344">
+      <c r="W5" s="376"/>
+      <c r="X5" s="376"/>
+      <c r="Y5" s="357">
         <v>4</v>
       </c>
-      <c r="Z5" s="344"/>
-      <c r="AA5" s="344"/>
-      <c r="AB5" s="344"/>
-      <c r="AC5" s="345"/>
+      <c r="Z5" s="357"/>
+      <c r="AA5" s="357"/>
+      <c r="AB5" s="357"/>
+      <c r="AC5" s="358"/>
       <c r="AD5" s="7"/>
       <c r="AE5" s="206"/>
       <c r="AF5" s="206"/>
@@ -10933,7 +10933,7 @@
         <v>34</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>32</v>
@@ -10968,41 +10968,41 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="33"/>
-      <c r="F7" s="326" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="327"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="327"/>
-      <c r="J7" s="327"/>
-      <c r="K7" s="327"/>
-      <c r="L7" s="327"/>
-      <c r="M7" s="327"/>
-      <c r="N7" s="327"/>
-      <c r="O7" s="327"/>
-      <c r="P7" s="327"/>
-      <c r="Q7" s="327"/>
+      <c r="F7" s="377" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="378"/>
+      <c r="H7" s="378"/>
+      <c r="I7" s="378"/>
+      <c r="J7" s="378"/>
+      <c r="K7" s="378"/>
+      <c r="L7" s="378"/>
+      <c r="M7" s="378"/>
+      <c r="N7" s="378"/>
+      <c r="O7" s="378"/>
+      <c r="P7" s="378"/>
+      <c r="Q7" s="378"/>
       <c r="R7" s="32"/>
       <c r="S7" s="13"/>
       <c r="T7" s="138"/>
-      <c r="U7" s="355" t="s">
+      <c r="U7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="355"/>
-      <c r="W7" s="354" t="s">
-        <v>66</v>
-      </c>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
-      <c r="AA7" s="354"/>
-      <c r="AB7" s="354"/>
-      <c r="AC7" s="354"/>
-      <c r="AD7" s="354"/>
-      <c r="AE7" s="354"/>
-      <c r="AF7" s="354"/>
-      <c r="AG7" s="354"/>
-      <c r="AH7" s="354"/>
+      <c r="V7" s="364"/>
+      <c r="W7" s="363" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="363"/>
+      <c r="Y7" s="363"/>
+      <c r="Z7" s="363"/>
+      <c r="AA7" s="363"/>
+      <c r="AB7" s="363"/>
+      <c r="AC7" s="363"/>
+      <c r="AD7" s="363"/>
+      <c r="AE7" s="363"/>
+      <c r="AF7" s="363"/>
+      <c r="AG7" s="363"/>
+      <c r="AH7" s="363"/>
     </row>
     <row r="8" spans="1:37" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -11012,41 +11012,41 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="336" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="337"/>
-      <c r="H8" s="337"/>
-      <c r="I8" s="337"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="337"/>
-      <c r="L8" s="337"/>
-      <c r="M8" s="337"/>
-      <c r="N8" s="337"/>
-      <c r="O8" s="337"/>
-      <c r="P8" s="337"/>
-      <c r="Q8" s="337"/>
-      <c r="R8" s="337"/>
+      <c r="F8" s="295" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="296"/>
+      <c r="K8" s="296"/>
+      <c r="L8" s="296"/>
+      <c r="M8" s="296"/>
+      <c r="N8" s="296"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="296"/>
+      <c r="Q8" s="296"/>
+      <c r="R8" s="296"/>
       <c r="S8" s="14"/>
       <c r="T8" s="139"/>
-      <c r="U8" s="356" t="s">
+      <c r="U8" s="365" t="s">
         <v>18</v>
       </c>
-      <c r="V8" s="356"/>
-      <c r="W8" s="338" t="s">
+      <c r="V8" s="365"/>
+      <c r="W8" s="351" t="s">
         <v>59</v>
       </c>
-      <c r="X8" s="339"/>
-      <c r="Y8" s="339"/>
-      <c r="Z8" s="339"/>
-      <c r="AA8" s="339"/>
-      <c r="AB8" s="339"/>
-      <c r="AC8" s="339"/>
-      <c r="AD8" s="339"/>
-      <c r="AE8" s="339"/>
-      <c r="AF8" s="339"/>
-      <c r="AG8" s="339"/>
-      <c r="AH8" s="339"/>
+      <c r="X8" s="352"/>
+      <c r="Y8" s="352"/>
+      <c r="Z8" s="352"/>
+      <c r="AA8" s="352"/>
+      <c r="AB8" s="352"/>
+      <c r="AC8" s="352"/>
+      <c r="AD8" s="352"/>
+      <c r="AE8" s="352"/>
+      <c r="AF8" s="352"/>
+      <c r="AG8" s="352"/>
+      <c r="AH8" s="352"/>
     </row>
     <row r="9" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
@@ -11056,27 +11056,27 @@
       <c r="C9" s="2"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="336" t="s">
+      <c r="F9" s="295" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="337"/>
-      <c r="H9" s="337"/>
-      <c r="I9" s="337"/>
-      <c r="J9" s="337"/>
-      <c r="K9" s="337"/>
-      <c r="L9" s="337"/>
-      <c r="M9" s="337"/>
-      <c r="N9" s="337"/>
-      <c r="O9" s="337"/>
-      <c r="P9" s="337"/>
-      <c r="Q9" s="337"/>
-      <c r="R9" s="337"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="296"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="296"/>
       <c r="S9" s="200"/>
       <c r="T9" s="139"/>
-      <c r="U9" s="356" t="s">
+      <c r="U9" s="365" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="356"/>
+      <c r="V9" s="365"/>
       <c r="W9" s="136"/>
       <c r="X9" s="137"/>
       <c r="Y9" s="201" t="s">
@@ -11086,35 +11086,35 @@
       <c r="AA9" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AB9" s="346" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC9" s="347"/>
-      <c r="AD9" s="347"/>
-      <c r="AE9" s="347"/>
-      <c r="AF9" s="347"/>
+      <c r="AB9" s="359" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC9" s="360"/>
+      <c r="AD9" s="360"/>
+      <c r="AE9" s="360"/>
+      <c r="AF9" s="360"/>
       <c r="AG9" s="17"/>
       <c r="AH9" s="18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="351" t="s">
+      <c r="B10" s="361" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="351"/>
-      <c r="D10" s="351"/>
-      <c r="E10" s="351"/>
-      <c r="F10" s="351"/>
-      <c r="G10" s="351"/>
-      <c r="H10" s="351"/>
-      <c r="I10" s="351"/>
-      <c r="J10" s="351"/>
-      <c r="K10" s="351"/>
-      <c r="L10" s="351"/>
-      <c r="M10" s="351"/>
-      <c r="N10" s="351"/>
-      <c r="O10" s="351"/>
+      <c r="C10" s="361"/>
+      <c r="D10" s="361"/>
+      <c r="E10" s="361"/>
+      <c r="F10" s="361"/>
+      <c r="G10" s="361"/>
+      <c r="H10" s="361"/>
+      <c r="I10" s="361"/>
+      <c r="J10" s="361"/>
+      <c r="K10" s="361"/>
+      <c r="L10" s="361"/>
+      <c r="M10" s="361"/>
+      <c r="N10" s="361"/>
+      <c r="O10" s="361"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
@@ -11138,23 +11138,23 @@
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
-      <c r="B11" s="300" t="s">
+      <c r="B11" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301"/>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="352" t="s">
+      <c r="C11" s="328"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="328"/>
+      <c r="H11" s="328"/>
+      <c r="I11" s="328"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="362" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="111">
@@ -11217,33 +11217,33 @@
         <v>15</v>
       </c>
       <c r="AF11" s="84"/>
-      <c r="AG11" s="359" t="s">
+      <c r="AG11" s="368" t="s">
         <v>26</v>
       </c>
-      <c r="AH11" s="357" t="s">
+      <c r="AH11" s="366" t="s">
         <v>22</v>
       </c>
       <c r="AK11" s="51"/>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="310" t="s">
+      <c r="B12" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="311"/>
-      <c r="D12" s="311"/>
-      <c r="E12" s="311"/>
-      <c r="F12" s="311"/>
-      <c r="G12" s="311"/>
-      <c r="H12" s="311"/>
-      <c r="I12" s="311"/>
-      <c r="J12" s="311"/>
-      <c r="K12" s="311"/>
-      <c r="L12" s="311"/>
-      <c r="M12" s="311"/>
-      <c r="N12" s="311"/>
-      <c r="O12" s="311"/>
-      <c r="P12" s="332"/>
+      <c r="C12" s="306"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="306"/>
+      <c r="F12" s="306"/>
+      <c r="G12" s="306"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="306"/>
+      <c r="J12" s="306"/>
+      <c r="K12" s="306"/>
+      <c r="L12" s="306"/>
+      <c r="M12" s="306"/>
+      <c r="N12" s="306"/>
+      <c r="O12" s="306"/>
+      <c r="P12" s="305"/>
       <c r="Q12" s="112">
         <v>16</v>
       </c>
@@ -11306,28 +11306,28 @@
       <c r="AF12" s="85">
         <v>31</v>
       </c>
-      <c r="AG12" s="360"/>
-      <c r="AH12" s="358"/>
+      <c r="AG12" s="318"/>
+      <c r="AH12" s="367"/>
       <c r="AK12" s="51"/>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="319" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
-      <c r="H13" s="349"/>
-      <c r="I13" s="349"/>
-      <c r="J13" s="349"/>
-      <c r="K13" s="349"/>
-      <c r="L13" s="349"/>
-      <c r="M13" s="349"/>
-      <c r="N13" s="349"/>
-      <c r="O13" s="350"/>
+      <c r="C13" s="320"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="320"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="320"/>
+      <c r="I13" s="320"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="320"/>
+      <c r="L13" s="320"/>
+      <c r="M13" s="320"/>
+      <c r="N13" s="320"/>
+      <c r="O13" s="321"/>
       <c r="P13" s="122" t="s">
         <v>6</v>
       </c>
@@ -11360,20 +11360,20 @@
     </row>
     <row r="14" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
-      <c r="B14" s="319"/>
-      <c r="C14" s="320"/>
-      <c r="D14" s="320"/>
-      <c r="E14" s="320"/>
-      <c r="F14" s="320"/>
-      <c r="G14" s="320"/>
-      <c r="H14" s="320"/>
-      <c r="I14" s="320"/>
-      <c r="J14" s="320"/>
-      <c r="K14" s="320"/>
-      <c r="L14" s="320"/>
-      <c r="M14" s="320"/>
-      <c r="N14" s="320"/>
-      <c r="O14" s="321"/>
+      <c r="B14" s="323"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="324"/>
+      <c r="E14" s="324"/>
+      <c r="F14" s="324"/>
+      <c r="G14" s="324"/>
+      <c r="H14" s="324"/>
+      <c r="I14" s="324"/>
+      <c r="J14" s="324"/>
+      <c r="K14" s="324"/>
+      <c r="L14" s="324"/>
+      <c r="M14" s="324"/>
+      <c r="N14" s="324"/>
+      <c r="O14" s="325"/>
       <c r="P14" s="122" t="s">
         <v>19</v>
       </c>
@@ -11405,23 +11405,23 @@
     </row>
     <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20"/>
-      <c r="B15" s="308" t="s">
+      <c r="B15" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="309"/>
-      <c r="D15" s="309"/>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="309"/>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="298" t="s">
+      <c r="C15" s="339"/>
+      <c r="D15" s="339"/>
+      <c r="E15" s="339"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="339"/>
+      <c r="H15" s="339"/>
+      <c r="I15" s="339"/>
+      <c r="J15" s="339"/>
+      <c r="K15" s="339"/>
+      <c r="L15" s="339"/>
+      <c r="M15" s="339"/>
+      <c r="N15" s="339"/>
+      <c r="O15" s="339"/>
+      <c r="P15" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q15" s="115">
@@ -11482,33 +11482,33 @@
         <v>15</v>
       </c>
       <c r="AF15" s="92"/>
-      <c r="AG15" s="314" t="s">
+      <c r="AG15" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH15" s="353" t="s">
+      <c r="AH15" s="322" t="s">
         <v>22</v>
       </c>
       <c r="AK15" s="52"/>
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20"/>
-      <c r="B16" s="296" t="s">
+      <c r="B16" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="297"/>
-      <c r="K16" s="297"/>
-      <c r="L16" s="297"/>
-      <c r="M16" s="297"/>
-      <c r="N16" s="297"/>
-      <c r="O16" s="297"/>
-      <c r="P16" s="299"/>
+      <c r="C16" s="336"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="336"/>
+      <c r="G16" s="336"/>
+      <c r="H16" s="336"/>
+      <c r="I16" s="336"/>
+      <c r="J16" s="336"/>
+      <c r="K16" s="336"/>
+      <c r="L16" s="336"/>
+      <c r="M16" s="336"/>
+      <c r="N16" s="336"/>
+      <c r="O16" s="336"/>
+      <c r="P16" s="334"/>
       <c r="Q16" s="115" t="s">
         <v>55</v>
       </c>
@@ -11571,26 +11571,26 @@
       <c r="AF16" s="91">
         <v>31</v>
       </c>
-      <c r="AG16" s="314"/>
-      <c r="AH16" s="353"/>
+      <c r="AG16" s="326"/>
+      <c r="AH16" s="322"/>
       <c r="AK16" s="52"/>
     </row>
     <row r="17" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
-      <c r="B17" s="315"/>
-      <c r="C17" s="316"/>
-      <c r="D17" s="316"/>
-      <c r="E17" s="316"/>
-      <c r="F17" s="316"/>
-      <c r="G17" s="316"/>
-      <c r="H17" s="316"/>
-      <c r="I17" s="316"/>
-      <c r="J17" s="316"/>
-      <c r="K17" s="316"/>
-      <c r="L17" s="316"/>
-      <c r="M17" s="316"/>
-      <c r="N17" s="316"/>
-      <c r="O17" s="317"/>
+      <c r="B17" s="369"/>
+      <c r="C17" s="370"/>
+      <c r="D17" s="370"/>
+      <c r="E17" s="370"/>
+      <c r="F17" s="370"/>
+      <c r="G17" s="370"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="370"/>
+      <c r="K17" s="370"/>
+      <c r="L17" s="370"/>
+      <c r="M17" s="370"/>
+      <c r="N17" s="370"/>
+      <c r="O17" s="371"/>
       <c r="P17" s="123" t="s">
         <v>6</v>
       </c>
@@ -11622,20 +11622,20 @@
     </row>
     <row r="18" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
-      <c r="B18" s="322"/>
-      <c r="C18" s="323"/>
-      <c r="D18" s="323"/>
-      <c r="E18" s="323"/>
-      <c r="F18" s="323"/>
-      <c r="G18" s="323"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="323"/>
-      <c r="J18" s="323"/>
-      <c r="K18" s="323"/>
-      <c r="L18" s="323"/>
-      <c r="M18" s="323"/>
-      <c r="N18" s="323"/>
-      <c r="O18" s="324"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="374"/>
+      <c r="D18" s="374"/>
+      <c r="E18" s="374"/>
+      <c r="F18" s="374"/>
+      <c r="G18" s="374"/>
+      <c r="H18" s="374"/>
+      <c r="I18" s="374"/>
+      <c r="J18" s="374"/>
+      <c r="K18" s="374"/>
+      <c r="L18" s="374"/>
+      <c r="M18" s="374"/>
+      <c r="N18" s="374"/>
+      <c r="O18" s="375"/>
       <c r="P18" s="124" t="s">
         <v>19</v>
       </c>
@@ -11667,23 +11667,23 @@
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20"/>
-      <c r="B19" s="300" t="s">
+      <c r="B19" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="301"/>
-      <c r="D19" s="301"/>
-      <c r="E19" s="301"/>
-      <c r="F19" s="301"/>
-      <c r="G19" s="301"/>
-      <c r="H19" s="301"/>
-      <c r="I19" s="301"/>
-      <c r="J19" s="301"/>
-      <c r="K19" s="301"/>
-      <c r="L19" s="301"/>
-      <c r="M19" s="301"/>
-      <c r="N19" s="301"/>
-      <c r="O19" s="301"/>
-      <c r="P19" s="331" t="s">
+      <c r="C19" s="328"/>
+      <c r="D19" s="328"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="328"/>
+      <c r="H19" s="328"/>
+      <c r="I19" s="328"/>
+      <c r="J19" s="328"/>
+      <c r="K19" s="328"/>
+      <c r="L19" s="328"/>
+      <c r="M19" s="328"/>
+      <c r="N19" s="328"/>
+      <c r="O19" s="328"/>
+      <c r="P19" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q19" s="112" t="s">
@@ -11746,33 +11746,33 @@
         <v>15</v>
       </c>
       <c r="AF19" s="98"/>
-      <c r="AG19" s="360" t="s">
+      <c r="AG19" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH19" s="292" t="s">
+      <c r="AH19" s="329" t="s">
         <v>22</v>
       </c>
       <c r="AK19" s="52"/>
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20"/>
-      <c r="B20" s="310" t="s">
+      <c r="B20" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="311"/>
-      <c r="D20" s="311"/>
-      <c r="E20" s="311"/>
-      <c r="F20" s="311"/>
-      <c r="G20" s="311"/>
-      <c r="H20" s="311"/>
-      <c r="I20" s="311"/>
-      <c r="J20" s="311"/>
-      <c r="K20" s="311"/>
-      <c r="L20" s="311"/>
-      <c r="M20" s="311"/>
-      <c r="N20" s="311"/>
-      <c r="O20" s="311"/>
-      <c r="P20" s="332"/>
+      <c r="C20" s="306"/>
+      <c r="D20" s="306"/>
+      <c r="E20" s="306"/>
+      <c r="F20" s="306"/>
+      <c r="G20" s="306"/>
+      <c r="H20" s="306"/>
+      <c r="I20" s="306"/>
+      <c r="J20" s="306"/>
+      <c r="K20" s="306"/>
+      <c r="L20" s="306"/>
+      <c r="M20" s="306"/>
+      <c r="N20" s="306"/>
+      <c r="O20" s="306"/>
+      <c r="P20" s="305"/>
       <c r="Q20" s="112">
         <v>16</v>
       </c>
@@ -11835,26 +11835,26 @@
       <c r="AF20" s="85">
         <v>31</v>
       </c>
-      <c r="AG20" s="360"/>
-      <c r="AH20" s="292"/>
+      <c r="AG20" s="318"/>
+      <c r="AH20" s="329"/>
       <c r="AK20" s="52"/>
     </row>
     <row r="21" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20"/>
-      <c r="B21" s="333"/>
-      <c r="C21" s="334"/>
-      <c r="D21" s="334"/>
-      <c r="E21" s="334"/>
-      <c r="F21" s="334"/>
-      <c r="G21" s="334"/>
-      <c r="H21" s="334"/>
-      <c r="I21" s="334"/>
-      <c r="J21" s="334"/>
-      <c r="K21" s="334"/>
-      <c r="L21" s="334"/>
-      <c r="M21" s="334"/>
-      <c r="N21" s="334"/>
-      <c r="O21" s="335"/>
+      <c r="B21" s="382"/>
+      <c r="C21" s="383"/>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="383"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="383"/>
+      <c r="K21" s="383"/>
+      <c r="L21" s="383"/>
+      <c r="M21" s="383"/>
+      <c r="N21" s="383"/>
+      <c r="O21" s="384"/>
       <c r="P21" s="122" t="s">
         <v>6</v>
       </c>
@@ -11886,20 +11886,20 @@
     </row>
     <row r="22" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
-      <c r="B22" s="322"/>
-      <c r="C22" s="323"/>
-      <c r="D22" s="323"/>
-      <c r="E22" s="323"/>
-      <c r="F22" s="323"/>
-      <c r="G22" s="323"/>
-      <c r="H22" s="323"/>
-      <c r="I22" s="323"/>
-      <c r="J22" s="323"/>
-      <c r="K22" s="323"/>
-      <c r="L22" s="323"/>
-      <c r="M22" s="323"/>
-      <c r="N22" s="323"/>
-      <c r="O22" s="324"/>
+      <c r="B22" s="373"/>
+      <c r="C22" s="374"/>
+      <c r="D22" s="374"/>
+      <c r="E22" s="374"/>
+      <c r="F22" s="374"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="374"/>
+      <c r="I22" s="374"/>
+      <c r="J22" s="374"/>
+      <c r="K22" s="374"/>
+      <c r="L22" s="374"/>
+      <c r="M22" s="374"/>
+      <c r="N22" s="374"/>
+      <c r="O22" s="375"/>
       <c r="P22" s="122" t="s">
         <v>19</v>
       </c>
@@ -11931,23 +11931,23 @@
     </row>
     <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="20"/>
-      <c r="B23" s="308" t="s">
+      <c r="B23" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="309"/>
-      <c r="D23" s="309"/>
-      <c r="E23" s="309"/>
-      <c r="F23" s="309"/>
-      <c r="G23" s="309"/>
-      <c r="H23" s="309"/>
-      <c r="I23" s="309"/>
-      <c r="J23" s="309"/>
-      <c r="K23" s="309"/>
-      <c r="L23" s="309"/>
-      <c r="M23" s="309"/>
-      <c r="N23" s="309"/>
-      <c r="O23" s="309"/>
-      <c r="P23" s="298" t="s">
+      <c r="C23" s="339"/>
+      <c r="D23" s="339"/>
+      <c r="E23" s="339"/>
+      <c r="F23" s="339"/>
+      <c r="G23" s="339"/>
+      <c r="H23" s="339"/>
+      <c r="I23" s="339"/>
+      <c r="J23" s="339"/>
+      <c r="K23" s="339"/>
+      <c r="L23" s="339"/>
+      <c r="M23" s="339"/>
+      <c r="N23" s="339"/>
+      <c r="O23" s="339"/>
+      <c r="P23" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q23" s="115">
@@ -12010,33 +12010,33 @@
         <v>15</v>
       </c>
       <c r="AF23" s="92"/>
-      <c r="AG23" s="314" t="s">
+      <c r="AG23" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH23" s="353" t="s">
+      <c r="AH23" s="322" t="s">
         <v>22</v>
       </c>
       <c r="AK23" s="52"/>
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="297"/>
-      <c r="D24" s="297"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="297"/>
-      <c r="H24" s="297"/>
-      <c r="I24" s="297"/>
-      <c r="J24" s="297"/>
-      <c r="K24" s="297"/>
-      <c r="L24" s="297"/>
-      <c r="M24" s="297"/>
-      <c r="N24" s="297"/>
-      <c r="O24" s="297"/>
-      <c r="P24" s="299"/>
+      <c r="C24" s="336"/>
+      <c r="D24" s="336"/>
+      <c r="E24" s="336"/>
+      <c r="F24" s="336"/>
+      <c r="G24" s="336"/>
+      <c r="H24" s="336"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="336"/>
+      <c r="K24" s="336"/>
+      <c r="L24" s="336"/>
+      <c r="M24" s="336"/>
+      <c r="N24" s="336"/>
+      <c r="O24" s="336"/>
+      <c r="P24" s="334"/>
       <c r="Q24" s="115">
         <v>16</v>
       </c>
@@ -12099,26 +12099,26 @@
       <c r="AF24" s="91">
         <v>31</v>
       </c>
-      <c r="AG24" s="314"/>
-      <c r="AH24" s="353"/>
+      <c r="AG24" s="326"/>
+      <c r="AH24" s="322"/>
       <c r="AK24" s="52"/>
     </row>
     <row r="25" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
-      <c r="B25" s="333"/>
-      <c r="C25" s="334"/>
-      <c r="D25" s="334"/>
-      <c r="E25" s="334"/>
-      <c r="F25" s="334"/>
-      <c r="G25" s="334"/>
-      <c r="H25" s="334"/>
-      <c r="I25" s="334"/>
-      <c r="J25" s="334"/>
-      <c r="K25" s="334"/>
-      <c r="L25" s="334"/>
-      <c r="M25" s="334"/>
-      <c r="N25" s="334"/>
-      <c r="O25" s="335"/>
+      <c r="B25" s="382"/>
+      <c r="C25" s="383"/>
+      <c r="D25" s="383"/>
+      <c r="E25" s="383"/>
+      <c r="F25" s="383"/>
+      <c r="G25" s="383"/>
+      <c r="H25" s="383"/>
+      <c r="I25" s="383"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="383"/>
+      <c r="L25" s="383"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="384"/>
       <c r="P25" s="124" t="s">
         <v>6</v>
       </c>
@@ -12150,20 +12150,20 @@
     </row>
     <row r="26" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20"/>
-      <c r="B26" s="322"/>
-      <c r="C26" s="323"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="323"/>
-      <c r="F26" s="323"/>
-      <c r="G26" s="323"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="323"/>
-      <c r="J26" s="323"/>
-      <c r="K26" s="323"/>
-      <c r="L26" s="323"/>
-      <c r="M26" s="323"/>
-      <c r="N26" s="323"/>
-      <c r="O26" s="324"/>
+      <c r="B26" s="373"/>
+      <c r="C26" s="374"/>
+      <c r="D26" s="374"/>
+      <c r="E26" s="374"/>
+      <c r="F26" s="374"/>
+      <c r="G26" s="374"/>
+      <c r="H26" s="374"/>
+      <c r="I26" s="374"/>
+      <c r="J26" s="374"/>
+      <c r="K26" s="374"/>
+      <c r="L26" s="374"/>
+      <c r="M26" s="374"/>
+      <c r="N26" s="374"/>
+      <c r="O26" s="375"/>
       <c r="P26" s="124" t="s">
         <v>19</v>
       </c>
@@ -12195,23 +12195,23 @@
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
-      <c r="B27" s="300" t="s">
+      <c r="B27" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="301"/>
-      <c r="J27" s="301"/>
-      <c r="K27" s="301"/>
-      <c r="L27" s="301"/>
-      <c r="M27" s="301"/>
-      <c r="N27" s="301"/>
-      <c r="O27" s="301"/>
-      <c r="P27" s="331" t="s">
+      <c r="C27" s="328"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="328"/>
+      <c r="H27" s="328"/>
+      <c r="I27" s="328"/>
+      <c r="J27" s="328"/>
+      <c r="K27" s="328"/>
+      <c r="L27" s="328"/>
+      <c r="M27" s="328"/>
+      <c r="N27" s="328"/>
+      <c r="O27" s="328"/>
+      <c r="P27" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q27" s="112">
@@ -12274,33 +12274,33 @@
         <v>15</v>
       </c>
       <c r="AF27" s="98"/>
-      <c r="AG27" s="360" t="s">
+      <c r="AG27" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH27" s="292" t="s">
+      <c r="AH27" s="329" t="s">
         <v>22</v>
       </c>
       <c r="AK27" s="51"/>
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20"/>
-      <c r="B28" s="312" t="s">
+      <c r="B28" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="313"/>
-      <c r="D28" s="313"/>
-      <c r="E28" s="313"/>
-      <c r="F28" s="311"/>
-      <c r="G28" s="311"/>
-      <c r="H28" s="311"/>
-      <c r="I28" s="311"/>
-      <c r="J28" s="311"/>
-      <c r="K28" s="311"/>
-      <c r="L28" s="311"/>
-      <c r="M28" s="311"/>
-      <c r="N28" s="311"/>
-      <c r="O28" s="311"/>
-      <c r="P28" s="332"/>
+      <c r="C28" s="344"/>
+      <c r="D28" s="344"/>
+      <c r="E28" s="344"/>
+      <c r="F28" s="306"/>
+      <c r="G28" s="306"/>
+      <c r="H28" s="306"/>
+      <c r="I28" s="306"/>
+      <c r="J28" s="306"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="306"/>
+      <c r="M28" s="306"/>
+      <c r="N28" s="306"/>
+      <c r="O28" s="306"/>
+      <c r="P28" s="305"/>
       <c r="Q28" s="112">
         <v>16</v>
       </c>
@@ -12363,26 +12363,26 @@
       <c r="AF28" s="85">
         <v>31</v>
       </c>
-      <c r="AG28" s="360"/>
-      <c r="AH28" s="292"/>
+      <c r="AG28" s="318"/>
+      <c r="AH28" s="329"/>
       <c r="AK28" s="51"/>
     </row>
     <row r="29" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
-      <c r="B29" s="361"/>
-      <c r="C29" s="362"/>
-      <c r="D29" s="362"/>
-      <c r="E29" s="362"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="362"/>
-      <c r="H29" s="362"/>
-      <c r="I29" s="362"/>
-      <c r="J29" s="362"/>
-      <c r="K29" s="362"/>
-      <c r="L29" s="362"/>
-      <c r="M29" s="362"/>
-      <c r="N29" s="362"/>
-      <c r="O29" s="363"/>
+      <c r="B29" s="345"/>
+      <c r="C29" s="346"/>
+      <c r="D29" s="346"/>
+      <c r="E29" s="346"/>
+      <c r="F29" s="346"/>
+      <c r="G29" s="346"/>
+      <c r="H29" s="346"/>
+      <c r="I29" s="346"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="346"/>
+      <c r="L29" s="346"/>
+      <c r="M29" s="346"/>
+      <c r="N29" s="346"/>
+      <c r="O29" s="347"/>
       <c r="P29" s="122" t="s">
         <v>6</v>
       </c>
@@ -12414,20 +12414,20 @@
     </row>
     <row r="30" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20"/>
-      <c r="B30" s="328"/>
-      <c r="C30" s="329"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="329"/>
-      <c r="F30" s="329"/>
-      <c r="G30" s="329"/>
-      <c r="H30" s="329"/>
-      <c r="I30" s="329"/>
-      <c r="J30" s="329"/>
-      <c r="K30" s="329"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="330"/>
+      <c r="B30" s="379"/>
+      <c r="C30" s="380"/>
+      <c r="D30" s="380"/>
+      <c r="E30" s="380"/>
+      <c r="F30" s="380"/>
+      <c r="G30" s="380"/>
+      <c r="H30" s="380"/>
+      <c r="I30" s="380"/>
+      <c r="J30" s="380"/>
+      <c r="K30" s="380"/>
+      <c r="L30" s="380"/>
+      <c r="M30" s="380"/>
+      <c r="N30" s="380"/>
+      <c r="O30" s="381"/>
       <c r="P30" s="122" t="s">
         <v>19</v>
       </c>
@@ -12459,23 +12459,23 @@
     </row>
     <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
-      <c r="B31" s="308" t="s">
+      <c r="B31" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="309"/>
-      <c r="D31" s="309"/>
-      <c r="E31" s="309"/>
-      <c r="F31" s="309"/>
-      <c r="G31" s="309"/>
-      <c r="H31" s="309"/>
-      <c r="I31" s="309"/>
-      <c r="J31" s="309"/>
-      <c r="K31" s="309"/>
-      <c r="L31" s="309"/>
-      <c r="M31" s="309"/>
-      <c r="N31" s="309"/>
-      <c r="O31" s="309"/>
-      <c r="P31" s="298" t="s">
+      <c r="C31" s="339"/>
+      <c r="D31" s="339"/>
+      <c r="E31" s="339"/>
+      <c r="F31" s="339"/>
+      <c r="G31" s="339"/>
+      <c r="H31" s="339"/>
+      <c r="I31" s="339"/>
+      <c r="J31" s="339"/>
+      <c r="K31" s="339"/>
+      <c r="L31" s="339"/>
+      <c r="M31" s="339"/>
+      <c r="N31" s="339"/>
+      <c r="O31" s="339"/>
+      <c r="P31" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q31" s="115">
@@ -12538,33 +12538,33 @@
         <v>15</v>
       </c>
       <c r="AF31" s="92"/>
-      <c r="AG31" s="314" t="s">
+      <c r="AG31" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH31" s="353" t="s">
+      <c r="AH31" s="322" t="s">
         <v>22</v>
       </c>
       <c r="AK31" s="51"/>
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
-      <c r="B32" s="296" t="s">
+      <c r="B32" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="297"/>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="297"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="297"/>
-      <c r="J32" s="297"/>
-      <c r="K32" s="297"/>
-      <c r="L32" s="297"/>
-      <c r="M32" s="297"/>
-      <c r="N32" s="297"/>
-      <c r="O32" s="297"/>
-      <c r="P32" s="299"/>
+      <c r="C32" s="336"/>
+      <c r="D32" s="336"/>
+      <c r="E32" s="336"/>
+      <c r="F32" s="336"/>
+      <c r="G32" s="336"/>
+      <c r="H32" s="336"/>
+      <c r="I32" s="336"/>
+      <c r="J32" s="336"/>
+      <c r="K32" s="336"/>
+      <c r="L32" s="336"/>
+      <c r="M32" s="336"/>
+      <c r="N32" s="336"/>
+      <c r="O32" s="336"/>
+      <c r="P32" s="334"/>
       <c r="Q32" s="115">
         <v>16</v>
       </c>
@@ -12627,26 +12627,26 @@
       <c r="AF32" s="91">
         <v>31</v>
       </c>
-      <c r="AG32" s="314"/>
-      <c r="AH32" s="353"/>
+      <c r="AG32" s="326"/>
+      <c r="AH32" s="322"/>
       <c r="AK32" s="51"/>
     </row>
     <row r="33" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20"/>
-      <c r="B33" s="364"/>
-      <c r="C33" s="365"/>
-      <c r="D33" s="365"/>
-      <c r="E33" s="365"/>
-      <c r="F33" s="365"/>
-      <c r="G33" s="365"/>
-      <c r="H33" s="365"/>
-      <c r="I33" s="365"/>
-      <c r="J33" s="365"/>
-      <c r="K33" s="365"/>
-      <c r="L33" s="365"/>
-      <c r="M33" s="365"/>
-      <c r="N33" s="365"/>
-      <c r="O33" s="366"/>
+      <c r="B33" s="348"/>
+      <c r="C33" s="349"/>
+      <c r="D33" s="349"/>
+      <c r="E33" s="349"/>
+      <c r="F33" s="349"/>
+      <c r="G33" s="349"/>
+      <c r="H33" s="349"/>
+      <c r="I33" s="349"/>
+      <c r="J33" s="349"/>
+      <c r="K33" s="349"/>
+      <c r="L33" s="349"/>
+      <c r="M33" s="349"/>
+      <c r="N33" s="349"/>
+      <c r="O33" s="350"/>
       <c r="P33" s="124" t="s">
         <v>6</v>
       </c>
@@ -12677,20 +12677,20 @@
     </row>
     <row r="34" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20"/>
-      <c r="B34" s="293"/>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
-      <c r="E34" s="294"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
-      <c r="H34" s="294"/>
-      <c r="I34" s="294"/>
-      <c r="J34" s="294"/>
-      <c r="K34" s="294"/>
-      <c r="L34" s="294"/>
-      <c r="M34" s="294"/>
-      <c r="N34" s="294"/>
-      <c r="O34" s="295"/>
+      <c r="B34" s="292"/>
+      <c r="C34" s="293"/>
+      <c r="D34" s="293"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
+      <c r="H34" s="293"/>
+      <c r="I34" s="293"/>
+      <c r="J34" s="293"/>
+      <c r="K34" s="293"/>
+      <c r="L34" s="293"/>
+      <c r="M34" s="293"/>
+      <c r="N34" s="293"/>
+      <c r="O34" s="294"/>
       <c r="P34" s="124" t="s">
         <v>19</v>
       </c>
@@ -12721,23 +12721,23 @@
     </row>
     <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
-      <c r="B35" s="300" t="s">
+      <c r="B35" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="301"/>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="301"/>
-      <c r="G35" s="301"/>
-      <c r="H35" s="301"/>
-      <c r="I35" s="301"/>
-      <c r="J35" s="301"/>
-      <c r="K35" s="301"/>
-      <c r="L35" s="301"/>
-      <c r="M35" s="301"/>
-      <c r="N35" s="301"/>
-      <c r="O35" s="301"/>
-      <c r="P35" s="331" t="s">
+      <c r="C35" s="328"/>
+      <c r="D35" s="328"/>
+      <c r="E35" s="328"/>
+      <c r="F35" s="328"/>
+      <c r="G35" s="328"/>
+      <c r="H35" s="328"/>
+      <c r="I35" s="328"/>
+      <c r="J35" s="328"/>
+      <c r="K35" s="328"/>
+      <c r="L35" s="328"/>
+      <c r="M35" s="328"/>
+      <c r="N35" s="328"/>
+      <c r="O35" s="328"/>
+      <c r="P35" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q35" s="112">
@@ -12800,32 +12800,32 @@
         <v>15</v>
       </c>
       <c r="AF35" s="98"/>
-      <c r="AG35" s="360" t="s">
+      <c r="AG35" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH35" s="292" t="s">
+      <c r="AH35" s="329" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
-      <c r="B36" s="312" t="s">
+      <c r="B36" s="343" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="313"/>
-      <c r="D36" s="313"/>
-      <c r="E36" s="313"/>
-      <c r="F36" s="311"/>
-      <c r="G36" s="311"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
-      <c r="M36" s="311"/>
-      <c r="N36" s="311"/>
-      <c r="O36" s="311"/>
-      <c r="P36" s="332"/>
+      <c r="C36" s="344"/>
+      <c r="D36" s="344"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="306"/>
+      <c r="G36" s="306"/>
+      <c r="H36" s="306"/>
+      <c r="I36" s="306"/>
+      <c r="J36" s="306"/>
+      <c r="K36" s="306"/>
+      <c r="L36" s="306"/>
+      <c r="M36" s="306"/>
+      <c r="N36" s="306"/>
+      <c r="O36" s="306"/>
+      <c r="P36" s="305"/>
       <c r="Q36" s="112">
         <v>16</v>
       </c>
@@ -12888,25 +12888,25 @@
       <c r="AF36" s="85">
         <v>31</v>
       </c>
-      <c r="AG36" s="360"/>
-      <c r="AH36" s="292"/>
+      <c r="AG36" s="318"/>
+      <c r="AH36" s="329"/>
     </row>
     <row r="37" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
-      <c r="B37" s="348"/>
-      <c r="C37" s="349"/>
-      <c r="D37" s="349"/>
-      <c r="E37" s="349"/>
-      <c r="F37" s="349"/>
-      <c r="G37" s="349"/>
-      <c r="H37" s="349"/>
-      <c r="I37" s="349"/>
-      <c r="J37" s="349"/>
-      <c r="K37" s="349"/>
-      <c r="L37" s="349"/>
-      <c r="M37" s="349"/>
-      <c r="N37" s="349"/>
-      <c r="O37" s="350"/>
+      <c r="B37" s="319"/>
+      <c r="C37" s="320"/>
+      <c r="D37" s="320"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="320"/>
+      <c r="L37" s="320"/>
+      <c r="M37" s="320"/>
+      <c r="N37" s="320"/>
+      <c r="O37" s="321"/>
       <c r="P37" s="122" t="s">
         <v>6</v>
       </c>
@@ -12937,20 +12937,20 @@
     </row>
     <row r="38" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20"/>
-      <c r="B38" s="319"/>
-      <c r="C38" s="320"/>
-      <c r="D38" s="320"/>
-      <c r="E38" s="320"/>
-      <c r="F38" s="320"/>
-      <c r="G38" s="320"/>
-      <c r="H38" s="320"/>
-      <c r="I38" s="320"/>
-      <c r="J38" s="320"/>
-      <c r="K38" s="320"/>
-      <c r="L38" s="320"/>
-      <c r="M38" s="320"/>
-      <c r="N38" s="320"/>
-      <c r="O38" s="321"/>
+      <c r="B38" s="323"/>
+      <c r="C38" s="324"/>
+      <c r="D38" s="324"/>
+      <c r="E38" s="324"/>
+      <c r="F38" s="324"/>
+      <c r="G38" s="324"/>
+      <c r="H38" s="324"/>
+      <c r="I38" s="324"/>
+      <c r="J38" s="324"/>
+      <c r="K38" s="324"/>
+      <c r="L38" s="324"/>
+      <c r="M38" s="324"/>
+      <c r="N38" s="324"/>
+      <c r="O38" s="325"/>
       <c r="P38" s="122" t="s">
         <v>19</v>
       </c>
@@ -12981,23 +12981,23 @@
     </row>
     <row r="39" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
-      <c r="B39" s="308" t="s">
+      <c r="B39" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="309"/>
-      <c r="D39" s="309"/>
-      <c r="E39" s="309"/>
-      <c r="F39" s="309"/>
-      <c r="G39" s="309"/>
-      <c r="H39" s="309"/>
-      <c r="I39" s="309"/>
-      <c r="J39" s="309"/>
-      <c r="K39" s="309"/>
-      <c r="L39" s="309"/>
-      <c r="M39" s="309"/>
-      <c r="N39" s="309"/>
-      <c r="O39" s="309"/>
-      <c r="P39" s="298" t="s">
+      <c r="C39" s="339"/>
+      <c r="D39" s="339"/>
+      <c r="E39" s="339"/>
+      <c r="F39" s="339"/>
+      <c r="G39" s="339"/>
+      <c r="H39" s="339"/>
+      <c r="I39" s="339"/>
+      <c r="J39" s="339"/>
+      <c r="K39" s="339"/>
+      <c r="L39" s="339"/>
+      <c r="M39" s="339"/>
+      <c r="N39" s="339"/>
+      <c r="O39" s="339"/>
+      <c r="P39" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q39" s="115">
@@ -13060,31 +13060,31 @@
         <v>15</v>
       </c>
       <c r="AF39" s="92"/>
-      <c r="AG39" s="314" t="s">
+      <c r="AG39" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH39" s="353" t="s">
+      <c r="AH39" s="322" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="296" t="s">
+      <c r="B40" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="297"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="297"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="297"/>
-      <c r="K40" s="297"/>
-      <c r="L40" s="297"/>
-      <c r="M40" s="297"/>
-      <c r="N40" s="297"/>
-      <c r="O40" s="297"/>
-      <c r="P40" s="299"/>
+      <c r="C40" s="336"/>
+      <c r="D40" s="336"/>
+      <c r="E40" s="336"/>
+      <c r="F40" s="336"/>
+      <c r="G40" s="336"/>
+      <c r="H40" s="336"/>
+      <c r="I40" s="336"/>
+      <c r="J40" s="336"/>
+      <c r="K40" s="336"/>
+      <c r="L40" s="336"/>
+      <c r="M40" s="336"/>
+      <c r="N40" s="336"/>
+      <c r="O40" s="336"/>
+      <c r="P40" s="334"/>
       <c r="Q40" s="115">
         <v>16</v>
       </c>
@@ -13147,24 +13147,24 @@
       <c r="AF40" s="91">
         <v>31</v>
       </c>
-      <c r="AG40" s="314"/>
-      <c r="AH40" s="353"/>
+      <c r="AG40" s="326"/>
+      <c r="AH40" s="322"/>
     </row>
     <row r="41" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="302"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="303"/>
-      <c r="H41" s="303"/>
-      <c r="I41" s="303"/>
-      <c r="J41" s="303"/>
-      <c r="K41" s="303"/>
-      <c r="L41" s="303"/>
-      <c r="M41" s="303"/>
-      <c r="N41" s="303"/>
-      <c r="O41" s="304"/>
+      <c r="B41" s="330"/>
+      <c r="C41" s="331"/>
+      <c r="D41" s="331"/>
+      <c r="E41" s="331"/>
+      <c r="F41" s="331"/>
+      <c r="G41" s="331"/>
+      <c r="H41" s="331"/>
+      <c r="I41" s="331"/>
+      <c r="J41" s="331"/>
+      <c r="K41" s="331"/>
+      <c r="L41" s="331"/>
+      <c r="M41" s="331"/>
+      <c r="N41" s="331"/>
+      <c r="O41" s="332"/>
       <c r="P41" s="124" t="s">
         <v>6</v>
       </c>
@@ -13194,20 +13194,20 @@
       </c>
     </row>
     <row r="42" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="293"/>
-      <c r="C42" s="294"/>
-      <c r="D42" s="294"/>
-      <c r="E42" s="294"/>
-      <c r="F42" s="294"/>
-      <c r="G42" s="294"/>
-      <c r="H42" s="294"/>
-      <c r="I42" s="294"/>
-      <c r="J42" s="294"/>
-      <c r="K42" s="294"/>
-      <c r="L42" s="294"/>
-      <c r="M42" s="294"/>
-      <c r="N42" s="294"/>
-      <c r="O42" s="295"/>
+      <c r="B42" s="292"/>
+      <c r="C42" s="293"/>
+      <c r="D42" s="293"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="293"/>
+      <c r="H42" s="293"/>
+      <c r="I42" s="293"/>
+      <c r="J42" s="293"/>
+      <c r="K42" s="293"/>
+      <c r="L42" s="293"/>
+      <c r="M42" s="293"/>
+      <c r="N42" s="293"/>
+      <c r="O42" s="294"/>
       <c r="P42" s="124" t="s">
         <v>19</v>
       </c>
@@ -13237,23 +13237,23 @@
       </c>
     </row>
     <row r="43" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="300" t="s">
+      <c r="B43" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="301"/>
-      <c r="D43" s="301"/>
-      <c r="E43" s="301"/>
-      <c r="F43" s="301"/>
-      <c r="G43" s="301"/>
-      <c r="H43" s="301"/>
-      <c r="I43" s="301"/>
-      <c r="J43" s="301"/>
-      <c r="K43" s="301"/>
-      <c r="L43" s="301"/>
-      <c r="M43" s="301"/>
-      <c r="N43" s="301"/>
-      <c r="O43" s="301"/>
-      <c r="P43" s="331" t="s">
+      <c r="C43" s="328"/>
+      <c r="D43" s="328"/>
+      <c r="E43" s="328"/>
+      <c r="F43" s="328"/>
+      <c r="G43" s="328"/>
+      <c r="H43" s="328"/>
+      <c r="I43" s="328"/>
+      <c r="J43" s="328"/>
+      <c r="K43" s="328"/>
+      <c r="L43" s="328"/>
+      <c r="M43" s="328"/>
+      <c r="N43" s="328"/>
+      <c r="O43" s="328"/>
+      <c r="P43" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q43" s="112">
@@ -13316,31 +13316,31 @@
         <v>15</v>
       </c>
       <c r="AF43" s="98"/>
-      <c r="AG43" s="360" t="s">
+      <c r="AG43" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH43" s="292" t="s">
+      <c r="AH43" s="329" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="310" t="s">
+      <c r="B44" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="311"/>
-      <c r="D44" s="311"/>
-      <c r="E44" s="311"/>
-      <c r="F44" s="311"/>
-      <c r="G44" s="311"/>
-      <c r="H44" s="311"/>
-      <c r="I44" s="311"/>
-      <c r="J44" s="311"/>
-      <c r="K44" s="311"/>
-      <c r="L44" s="311"/>
-      <c r="M44" s="311"/>
-      <c r="N44" s="311"/>
-      <c r="O44" s="311"/>
-      <c r="P44" s="332"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="306"/>
+      <c r="E44" s="306"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="306"/>
+      <c r="I44" s="306"/>
+      <c r="J44" s="306"/>
+      <c r="K44" s="306"/>
+      <c r="L44" s="306"/>
+      <c r="M44" s="306"/>
+      <c r="N44" s="306"/>
+      <c r="O44" s="306"/>
+      <c r="P44" s="305"/>
       <c r="Q44" s="112">
         <v>16</v>
       </c>
@@ -13403,24 +13403,24 @@
       <c r="AF44" s="85">
         <v>31</v>
       </c>
-      <c r="AG44" s="360"/>
-      <c r="AH44" s="292"/>
+      <c r="AG44" s="318"/>
+      <c r="AH44" s="329"/>
     </row>
     <row r="45" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="348"/>
-      <c r="C45" s="349"/>
-      <c r="D45" s="349"/>
-      <c r="E45" s="349"/>
-      <c r="F45" s="349"/>
-      <c r="G45" s="349"/>
-      <c r="H45" s="349"/>
-      <c r="I45" s="349"/>
-      <c r="J45" s="349"/>
-      <c r="K45" s="349"/>
-      <c r="L45" s="349"/>
-      <c r="M45" s="349"/>
-      <c r="N45" s="349"/>
-      <c r="O45" s="350"/>
+      <c r="B45" s="319"/>
+      <c r="C45" s="320"/>
+      <c r="D45" s="320"/>
+      <c r="E45" s="320"/>
+      <c r="F45" s="320"/>
+      <c r="G45" s="320"/>
+      <c r="H45" s="320"/>
+      <c r="I45" s="320"/>
+      <c r="J45" s="320"/>
+      <c r="K45" s="320"/>
+      <c r="L45" s="320"/>
+      <c r="M45" s="320"/>
+      <c r="N45" s="320"/>
+      <c r="O45" s="321"/>
       <c r="P45" s="122" t="s">
         <v>6</v>
       </c>
@@ -13450,20 +13450,20 @@
       </c>
     </row>
     <row r="46" spans="1:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="319"/>
-      <c r="C46" s="320"/>
-      <c r="D46" s="320"/>
-      <c r="E46" s="320"/>
-      <c r="F46" s="320"/>
-      <c r="G46" s="320"/>
-      <c r="H46" s="320"/>
-      <c r="I46" s="320"/>
-      <c r="J46" s="320"/>
-      <c r="K46" s="320"/>
-      <c r="L46" s="320"/>
-      <c r="M46" s="320"/>
-      <c r="N46" s="320"/>
-      <c r="O46" s="321"/>
+      <c r="B46" s="323"/>
+      <c r="C46" s="324"/>
+      <c r="D46" s="324"/>
+      <c r="E46" s="324"/>
+      <c r="F46" s="324"/>
+      <c r="G46" s="324"/>
+      <c r="H46" s="324"/>
+      <c r="I46" s="324"/>
+      <c r="J46" s="324"/>
+      <c r="K46" s="324"/>
+      <c r="L46" s="324"/>
+      <c r="M46" s="324"/>
+      <c r="N46" s="324"/>
+      <c r="O46" s="325"/>
       <c r="P46" s="122" t="s">
         <v>19</v>
       </c>
@@ -13493,23 +13493,23 @@
       </c>
     </row>
     <row r="47" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="308" t="s">
+      <c r="B47" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="309"/>
-      <c r="D47" s="309"/>
-      <c r="E47" s="309"/>
-      <c r="F47" s="309"/>
-      <c r="G47" s="309"/>
-      <c r="H47" s="309"/>
-      <c r="I47" s="309"/>
-      <c r="J47" s="309"/>
-      <c r="K47" s="309"/>
-      <c r="L47" s="309"/>
-      <c r="M47" s="309"/>
-      <c r="N47" s="309"/>
-      <c r="O47" s="309"/>
-      <c r="P47" s="298" t="s">
+      <c r="C47" s="339"/>
+      <c r="D47" s="339"/>
+      <c r="E47" s="339"/>
+      <c r="F47" s="339"/>
+      <c r="G47" s="339"/>
+      <c r="H47" s="339"/>
+      <c r="I47" s="339"/>
+      <c r="J47" s="339"/>
+      <c r="K47" s="339"/>
+      <c r="L47" s="339"/>
+      <c r="M47" s="339"/>
+      <c r="N47" s="339"/>
+      <c r="O47" s="339"/>
+      <c r="P47" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q47" s="115">
@@ -13572,31 +13572,31 @@
         <v>15</v>
       </c>
       <c r="AF47" s="92"/>
-      <c r="AG47" s="314" t="s">
+      <c r="AG47" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH47" s="353" t="s">
+      <c r="AH47" s="322" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="296" t="s">
+      <c r="B48" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="297"/>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-      <c r="G48" s="297"/>
-      <c r="H48" s="297"/>
-      <c r="I48" s="297"/>
-      <c r="J48" s="297"/>
-      <c r="K48" s="297"/>
-      <c r="L48" s="297"/>
-      <c r="M48" s="297"/>
-      <c r="N48" s="297"/>
-      <c r="O48" s="297"/>
-      <c r="P48" s="299"/>
+      <c r="C48" s="336"/>
+      <c r="D48" s="336"/>
+      <c r="E48" s="336"/>
+      <c r="F48" s="336"/>
+      <c r="G48" s="336"/>
+      <c r="H48" s="336"/>
+      <c r="I48" s="336"/>
+      <c r="J48" s="336"/>
+      <c r="K48" s="336"/>
+      <c r="L48" s="336"/>
+      <c r="M48" s="336"/>
+      <c r="N48" s="336"/>
+      <c r="O48" s="336"/>
+      <c r="P48" s="334"/>
       <c r="Q48" s="115">
         <v>16</v>
       </c>
@@ -13659,24 +13659,24 @@
       <c r="AF48" s="91">
         <v>31</v>
       </c>
-      <c r="AG48" s="314"/>
-      <c r="AH48" s="353"/>
+      <c r="AG48" s="326"/>
+      <c r="AH48" s="322"/>
     </row>
     <row r="49" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="302"/>
-      <c r="C49" s="303"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="304"/>
+      <c r="B49" s="330"/>
+      <c r="C49" s="331"/>
+      <c r="D49" s="331"/>
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
+      <c r="H49" s="331"/>
+      <c r="I49" s="331"/>
+      <c r="J49" s="331"/>
+      <c r="K49" s="331"/>
+      <c r="L49" s="331"/>
+      <c r="M49" s="331"/>
+      <c r="N49" s="331"/>
+      <c r="O49" s="332"/>
       <c r="P49" s="124" t="s">
         <v>6</v>
       </c>
@@ -13706,20 +13706,20 @@
       </c>
     </row>
     <row r="50" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="305"/>
-      <c r="C50" s="306"/>
-      <c r="D50" s="306"/>
-      <c r="E50" s="306"/>
-      <c r="F50" s="306"/>
-      <c r="G50" s="306"/>
-      <c r="H50" s="306"/>
-      <c r="I50" s="306"/>
-      <c r="J50" s="306"/>
-      <c r="K50" s="306"/>
-      <c r="L50" s="306"/>
-      <c r="M50" s="306"/>
-      <c r="N50" s="306"/>
-      <c r="O50" s="307"/>
+      <c r="B50" s="340"/>
+      <c r="C50" s="341"/>
+      <c r="D50" s="341"/>
+      <c r="E50" s="341"/>
+      <c r="F50" s="341"/>
+      <c r="G50" s="341"/>
+      <c r="H50" s="341"/>
+      <c r="I50" s="341"/>
+      <c r="J50" s="341"/>
+      <c r="K50" s="341"/>
+      <c r="L50" s="341"/>
+      <c r="M50" s="341"/>
+      <c r="N50" s="341"/>
+      <c r="O50" s="342"/>
       <c r="P50" s="124" t="s">
         <v>19</v>
       </c>
@@ -13749,23 +13749,23 @@
       </c>
     </row>
     <row r="51" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="300" t="s">
+      <c r="B51" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="301"/>
-      <c r="D51" s="301"/>
-      <c r="E51" s="301"/>
-      <c r="F51" s="301"/>
-      <c r="G51" s="301"/>
-      <c r="H51" s="301"/>
-      <c r="I51" s="301"/>
-      <c r="J51" s="301"/>
-      <c r="K51" s="301"/>
-      <c r="L51" s="301"/>
-      <c r="M51" s="301"/>
-      <c r="N51" s="301"/>
-      <c r="O51" s="301"/>
-      <c r="P51" s="331" t="s">
+      <c r="C51" s="328"/>
+      <c r="D51" s="328"/>
+      <c r="E51" s="328"/>
+      <c r="F51" s="328"/>
+      <c r="G51" s="328"/>
+      <c r="H51" s="328"/>
+      <c r="I51" s="328"/>
+      <c r="J51" s="328"/>
+      <c r="K51" s="328"/>
+      <c r="L51" s="328"/>
+      <c r="M51" s="328"/>
+      <c r="N51" s="328"/>
+      <c r="O51" s="328"/>
+      <c r="P51" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q51" s="112">
@@ -13828,31 +13828,31 @@
         <v>15</v>
       </c>
       <c r="AF51" s="98"/>
-      <c r="AG51" s="360" t="s">
+      <c r="AG51" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH51" s="292" t="s">
+      <c r="AH51" s="329" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="310" t="s">
+      <c r="B52" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="311"/>
-      <c r="D52" s="311"/>
-      <c r="E52" s="311"/>
-      <c r="F52" s="311"/>
-      <c r="G52" s="311"/>
-      <c r="H52" s="311"/>
-      <c r="I52" s="311"/>
-      <c r="J52" s="311"/>
-      <c r="K52" s="311"/>
-      <c r="L52" s="311"/>
-      <c r="M52" s="311"/>
-      <c r="N52" s="311"/>
-      <c r="O52" s="311"/>
-      <c r="P52" s="332"/>
+      <c r="C52" s="306"/>
+      <c r="D52" s="306"/>
+      <c r="E52" s="306"/>
+      <c r="F52" s="306"/>
+      <c r="G52" s="306"/>
+      <c r="H52" s="306"/>
+      <c r="I52" s="306"/>
+      <c r="J52" s="306"/>
+      <c r="K52" s="306"/>
+      <c r="L52" s="306"/>
+      <c r="M52" s="306"/>
+      <c r="N52" s="306"/>
+      <c r="O52" s="306"/>
+      <c r="P52" s="305"/>
       <c r="Q52" s="112">
         <v>16</v>
       </c>
@@ -13915,24 +13915,24 @@
       <c r="AF52" s="85">
         <v>31</v>
       </c>
-      <c r="AG52" s="360"/>
-      <c r="AH52" s="292"/>
+      <c r="AG52" s="318"/>
+      <c r="AH52" s="329"/>
     </row>
     <row r="53" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="348"/>
-      <c r="C53" s="349"/>
-      <c r="D53" s="349"/>
-      <c r="E53" s="349"/>
-      <c r="F53" s="349"/>
-      <c r="G53" s="349"/>
-      <c r="H53" s="349"/>
-      <c r="I53" s="349"/>
-      <c r="J53" s="349"/>
-      <c r="K53" s="349"/>
-      <c r="L53" s="349"/>
-      <c r="M53" s="349"/>
-      <c r="N53" s="349"/>
-      <c r="O53" s="350"/>
+      <c r="B53" s="319"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="320"/>
+      <c r="H53" s="320"/>
+      <c r="I53" s="320"/>
+      <c r="J53" s="320"/>
+      <c r="K53" s="320"/>
+      <c r="L53" s="320"/>
+      <c r="M53" s="320"/>
+      <c r="N53" s="320"/>
+      <c r="O53" s="321"/>
       <c r="P53" s="122" t="s">
         <v>6</v>
       </c>
@@ -13962,20 +13962,20 @@
       </c>
     </row>
     <row r="54" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="319"/>
-      <c r="C54" s="320"/>
-      <c r="D54" s="320"/>
-      <c r="E54" s="320"/>
-      <c r="F54" s="320"/>
-      <c r="G54" s="320"/>
-      <c r="H54" s="320"/>
-      <c r="I54" s="320"/>
-      <c r="J54" s="320"/>
-      <c r="K54" s="320"/>
-      <c r="L54" s="320"/>
-      <c r="M54" s="320"/>
-      <c r="N54" s="320"/>
-      <c r="O54" s="321"/>
+      <c r="B54" s="323"/>
+      <c r="C54" s="324"/>
+      <c r="D54" s="324"/>
+      <c r="E54" s="324"/>
+      <c r="F54" s="324"/>
+      <c r="G54" s="324"/>
+      <c r="H54" s="324"/>
+      <c r="I54" s="324"/>
+      <c r="J54" s="324"/>
+      <c r="K54" s="324"/>
+      <c r="L54" s="324"/>
+      <c r="M54" s="324"/>
+      <c r="N54" s="324"/>
+      <c r="O54" s="325"/>
       <c r="P54" s="122" t="s">
         <v>19</v>
       </c>
@@ -14005,23 +14005,23 @@
       </c>
     </row>
     <row r="55" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="308" t="s">
+      <c r="B55" s="338" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="309"/>
-      <c r="D55" s="309"/>
-      <c r="E55" s="309"/>
-      <c r="F55" s="309"/>
-      <c r="G55" s="309"/>
-      <c r="H55" s="309"/>
-      <c r="I55" s="309"/>
-      <c r="J55" s="309"/>
-      <c r="K55" s="309"/>
-      <c r="L55" s="309"/>
-      <c r="M55" s="309"/>
-      <c r="N55" s="309"/>
-      <c r="O55" s="309"/>
-      <c r="P55" s="298" t="s">
+      <c r="C55" s="339"/>
+      <c r="D55" s="339"/>
+      <c r="E55" s="339"/>
+      <c r="F55" s="339"/>
+      <c r="G55" s="339"/>
+      <c r="H55" s="339"/>
+      <c r="I55" s="339"/>
+      <c r="J55" s="339"/>
+      <c r="K55" s="339"/>
+      <c r="L55" s="339"/>
+      <c r="M55" s="339"/>
+      <c r="N55" s="339"/>
+      <c r="O55" s="339"/>
+      <c r="P55" s="333" t="s">
         <v>21</v>
       </c>
       <c r="Q55" s="115">
@@ -14084,31 +14084,31 @@
         <v>15</v>
       </c>
       <c r="AF55" s="92"/>
-      <c r="AG55" s="314" t="s">
+      <c r="AG55" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="AH55" s="353" t="s">
+      <c r="AH55" s="322" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="56" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="296" t="s">
+      <c r="B56" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="297"/>
-      <c r="D56" s="297"/>
-      <c r="E56" s="297"/>
-      <c r="F56" s="297"/>
-      <c r="G56" s="297"/>
-      <c r="H56" s="297"/>
-      <c r="I56" s="297"/>
-      <c r="J56" s="297"/>
-      <c r="K56" s="297"/>
-      <c r="L56" s="297"/>
-      <c r="M56" s="297"/>
-      <c r="N56" s="297"/>
-      <c r="O56" s="297"/>
-      <c r="P56" s="299"/>
+      <c r="C56" s="336"/>
+      <c r="D56" s="336"/>
+      <c r="E56" s="336"/>
+      <c r="F56" s="336"/>
+      <c r="G56" s="336"/>
+      <c r="H56" s="336"/>
+      <c r="I56" s="336"/>
+      <c r="J56" s="336"/>
+      <c r="K56" s="336"/>
+      <c r="L56" s="336"/>
+      <c r="M56" s="336"/>
+      <c r="N56" s="336"/>
+      <c r="O56" s="336"/>
+      <c r="P56" s="334"/>
       <c r="Q56" s="115">
         <v>16</v>
       </c>
@@ -14171,24 +14171,24 @@
       <c r="AF56" s="91">
         <v>31</v>
       </c>
-      <c r="AG56" s="314"/>
-      <c r="AH56" s="353"/>
+      <c r="AG56" s="326"/>
+      <c r="AH56" s="322"/>
     </row>
     <row r="57" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="302"/>
-      <c r="C57" s="303"/>
-      <c r="D57" s="303"/>
-      <c r="E57" s="303"/>
-      <c r="F57" s="303"/>
-      <c r="G57" s="303"/>
-      <c r="H57" s="303"/>
-      <c r="I57" s="303"/>
-      <c r="J57" s="303"/>
-      <c r="K57" s="303"/>
-      <c r="L57" s="303"/>
-      <c r="M57" s="303"/>
-      <c r="N57" s="303"/>
-      <c r="O57" s="304"/>
+      <c r="B57" s="330"/>
+      <c r="C57" s="331"/>
+      <c r="D57" s="331"/>
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="331"/>
+      <c r="I57" s="331"/>
+      <c r="J57" s="331"/>
+      <c r="K57" s="331"/>
+      <c r="L57" s="331"/>
+      <c r="M57" s="331"/>
+      <c r="N57" s="331"/>
+      <c r="O57" s="332"/>
       <c r="P57" s="124" t="s">
         <v>6</v>
       </c>
@@ -14218,20 +14218,20 @@
       </c>
     </row>
     <row r="58" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="305"/>
-      <c r="C58" s="306"/>
-      <c r="D58" s="306"/>
-      <c r="E58" s="306"/>
-      <c r="F58" s="306"/>
-      <c r="G58" s="306"/>
-      <c r="H58" s="306"/>
-      <c r="I58" s="306"/>
-      <c r="J58" s="306"/>
-      <c r="K58" s="306"/>
-      <c r="L58" s="306"/>
-      <c r="M58" s="306"/>
-      <c r="N58" s="306"/>
-      <c r="O58" s="307"/>
+      <c r="B58" s="340"/>
+      <c r="C58" s="341"/>
+      <c r="D58" s="341"/>
+      <c r="E58" s="341"/>
+      <c r="F58" s="341"/>
+      <c r="G58" s="341"/>
+      <c r="H58" s="341"/>
+      <c r="I58" s="341"/>
+      <c r="J58" s="341"/>
+      <c r="K58" s="341"/>
+      <c r="L58" s="341"/>
+      <c r="M58" s="341"/>
+      <c r="N58" s="341"/>
+      <c r="O58" s="342"/>
       <c r="P58" s="124" t="s">
         <v>19</v>
       </c>
@@ -14261,23 +14261,23 @@
       </c>
     </row>
     <row r="59" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="300" t="s">
+      <c r="B59" s="327" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="301"/>
-      <c r="G59" s="301"/>
-      <c r="H59" s="301"/>
-      <c r="I59" s="301"/>
-      <c r="J59" s="301"/>
-      <c r="K59" s="301"/>
-      <c r="L59" s="301"/>
-      <c r="M59" s="301"/>
-      <c r="N59" s="301"/>
-      <c r="O59" s="301"/>
-      <c r="P59" s="331" t="s">
+      <c r="C59" s="328"/>
+      <c r="D59" s="328"/>
+      <c r="E59" s="328"/>
+      <c r="F59" s="328"/>
+      <c r="G59" s="328"/>
+      <c r="H59" s="328"/>
+      <c r="I59" s="328"/>
+      <c r="J59" s="328"/>
+      <c r="K59" s="328"/>
+      <c r="L59" s="328"/>
+      <c r="M59" s="328"/>
+      <c r="N59" s="328"/>
+      <c r="O59" s="328"/>
+      <c r="P59" s="304" t="s">
         <v>21</v>
       </c>
       <c r="Q59" s="112">
@@ -14340,31 +14340,31 @@
         <v>15</v>
       </c>
       <c r="AF59" s="98"/>
-      <c r="AG59" s="360" t="s">
+      <c r="AG59" s="318" t="s">
         <v>26</v>
       </c>
-      <c r="AH59" s="292" t="s">
+      <c r="AH59" s="329" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="60" spans="2:34" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="310" t="s">
+      <c r="B60" s="337" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="311"/>
-      <c r="D60" s="311"/>
-      <c r="E60" s="311"/>
-      <c r="F60" s="311"/>
-      <c r="G60" s="311"/>
-      <c r="H60" s="311"/>
-      <c r="I60" s="311"/>
-      <c r="J60" s="311"/>
-      <c r="K60" s="311"/>
-      <c r="L60" s="311"/>
-      <c r="M60" s="311"/>
-      <c r="N60" s="311"/>
-      <c r="O60" s="311"/>
-      <c r="P60" s="332"/>
+      <c r="C60" s="306"/>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="306"/>
+      <c r="G60" s="306"/>
+      <c r="H60" s="306"/>
+      <c r="I60" s="306"/>
+      <c r="J60" s="306"/>
+      <c r="K60" s="306"/>
+      <c r="L60" s="306"/>
+      <c r="M60" s="306"/>
+      <c r="N60" s="306"/>
+      <c r="O60" s="306"/>
+      <c r="P60" s="305"/>
       <c r="Q60" s="112">
         <v>16</v>
       </c>
@@ -14427,24 +14427,24 @@
       <c r="AF60" s="85">
         <v>31</v>
       </c>
-      <c r="AG60" s="360"/>
-      <c r="AH60" s="292"/>
+      <c r="AG60" s="318"/>
+      <c r="AH60" s="329"/>
     </row>
     <row r="61" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="348"/>
-      <c r="C61" s="349"/>
-      <c r="D61" s="349"/>
-      <c r="E61" s="349"/>
-      <c r="F61" s="349"/>
-      <c r="G61" s="349"/>
-      <c r="H61" s="349"/>
-      <c r="I61" s="349"/>
-      <c r="J61" s="349"/>
-      <c r="K61" s="349"/>
-      <c r="L61" s="349"/>
-      <c r="M61" s="349"/>
-      <c r="N61" s="349"/>
-      <c r="O61" s="350"/>
+      <c r="B61" s="319"/>
+      <c r="C61" s="320"/>
+      <c r="D61" s="320"/>
+      <c r="E61" s="320"/>
+      <c r="F61" s="320"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="320"/>
+      <c r="I61" s="320"/>
+      <c r="J61" s="320"/>
+      <c r="K61" s="320"/>
+      <c r="L61" s="320"/>
+      <c r="M61" s="320"/>
+      <c r="N61" s="320"/>
+      <c r="O61" s="321"/>
       <c r="P61" s="122" t="s">
         <v>6</v>
       </c>
@@ -14474,20 +14474,20 @@
       </c>
     </row>
     <row r="62" spans="2:34" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="319"/>
-      <c r="C62" s="320"/>
-      <c r="D62" s="320"/>
-      <c r="E62" s="320"/>
-      <c r="F62" s="320"/>
-      <c r="G62" s="320"/>
-      <c r="H62" s="320"/>
-      <c r="I62" s="320"/>
-      <c r="J62" s="320"/>
-      <c r="K62" s="320"/>
-      <c r="L62" s="320"/>
-      <c r="M62" s="320"/>
-      <c r="N62" s="320"/>
-      <c r="O62" s="321"/>
+      <c r="B62" s="323"/>
+      <c r="C62" s="324"/>
+      <c r="D62" s="324"/>
+      <c r="E62" s="324"/>
+      <c r="F62" s="324"/>
+      <c r="G62" s="324"/>
+      <c r="H62" s="324"/>
+      <c r="I62" s="324"/>
+      <c r="J62" s="324"/>
+      <c r="K62" s="324"/>
+      <c r="L62" s="324"/>
+      <c r="M62" s="324"/>
+      <c r="N62" s="324"/>
+      <c r="O62" s="325"/>
       <c r="P62" s="125" t="s">
         <v>19</v>
       </c>
@@ -14540,16 +14540,16 @@
       <c r="V63" s="62"/>
       <c r="W63" s="63"/>
       <c r="X63" s="63"/>
-      <c r="Y63" s="372" t="s">
+      <c r="Y63" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="Z63" s="372"/>
-      <c r="AA63" s="372"/>
-      <c r="AB63" s="372"/>
-      <c r="AC63" s="372"/>
-      <c r="AD63" s="372"/>
-      <c r="AE63" s="372"/>
-      <c r="AF63" s="373"/>
+      <c r="Z63" s="302"/>
+      <c r="AA63" s="302"/>
+      <c r="AB63" s="302"/>
+      <c r="AC63" s="302"/>
+      <c r="AD63" s="302"/>
+      <c r="AE63" s="302"/>
+      <c r="AF63" s="303"/>
       <c r="AG63" s="64">
         <f>AG61+AG53+AG49+AG45+AG41+AG37+AG33+AG29+AG25+AG21+AG17+AG13+AG57</f>
         <v>0</v>
@@ -14581,18 +14581,18 @@
       <c r="T64" s="62"/>
       <c r="U64" s="62"/>
       <c r="V64" s="62"/>
-      <c r="W64" s="371" t="s">
+      <c r="W64" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="X64" s="371"/>
-      <c r="Y64" s="371"/>
-      <c r="Z64" s="371"/>
-      <c r="AA64" s="371"/>
-      <c r="AB64" s="371"/>
-      <c r="AC64" s="371"/>
-      <c r="AD64" s="371"/>
-      <c r="AE64" s="371"/>
-      <c r="AF64" s="371"/>
+      <c r="X64" s="301"/>
+      <c r="Y64" s="301"/>
+      <c r="Z64" s="301"/>
+      <c r="AA64" s="301"/>
+      <c r="AB64" s="301"/>
+      <c r="AC64" s="301"/>
+      <c r="AD64" s="301"/>
+      <c r="AE64" s="301"/>
+      <c r="AF64" s="301"/>
       <c r="AG64" s="66">
         <f>AG62+AG58+AG54+AG50+AG46+AG42+AG38+AG34+AG30+AG26+AG22+AG18+AG14</f>
         <v>0</v>
@@ -14638,60 +14638,60 @@
       <c r="AH65" s="56"/>
     </row>
     <row r="66" spans="2:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="374" t="s">
+      <c r="B66" s="307" t="s">
         <v>27</v>
       </c>
-      <c r="C66" s="375"/>
-      <c r="D66" s="375"/>
-      <c r="E66" s="375"/>
-      <c r="F66" s="375"/>
-      <c r="G66" s="375"/>
-      <c r="H66" s="375"/>
-      <c r="I66" s="375"/>
-      <c r="J66" s="375"/>
-      <c r="K66" s="375"/>
-      <c r="L66" s="375"/>
-      <c r="M66" s="375"/>
-      <c r="N66" s="375"/>
-      <c r="O66" s="375"/>
-      <c r="P66" s="375"/>
-      <c r="Q66" s="375"/>
-      <c r="R66" s="375"/>
-      <c r="S66" s="375"/>
-      <c r="T66" s="375"/>
-      <c r="U66" s="375"/>
-      <c r="V66" s="375"/>
-      <c r="W66" s="375"/>
-      <c r="X66" s="375"/>
-      <c r="Y66" s="375"/>
-      <c r="Z66" s="375"/>
-      <c r="AA66" s="375"/>
-      <c r="AB66" s="375"/>
-      <c r="AC66" s="375"/>
-      <c r="AD66" s="375"/>
-      <c r="AE66" s="375"/>
-      <c r="AF66" s="375"/>
-      <c r="AG66" s="375"/>
-      <c r="AH66" s="376"/>
+      <c r="C66" s="308"/>
+      <c r="D66" s="308"/>
+      <c r="E66" s="308"/>
+      <c r="F66" s="308"/>
+      <c r="G66" s="308"/>
+      <c r="H66" s="308"/>
+      <c r="I66" s="308"/>
+      <c r="J66" s="308"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="308"/>
+      <c r="M66" s="308"/>
+      <c r="N66" s="308"/>
+      <c r="O66" s="308"/>
+      <c r="P66" s="308"/>
+      <c r="Q66" s="308"/>
+      <c r="R66" s="308"/>
+      <c r="S66" s="308"/>
+      <c r="T66" s="308"/>
+      <c r="U66" s="308"/>
+      <c r="V66" s="308"/>
+      <c r="W66" s="308"/>
+      <c r="X66" s="308"/>
+      <c r="Y66" s="308"/>
+      <c r="Z66" s="308"/>
+      <c r="AA66" s="308"/>
+      <c r="AB66" s="308"/>
+      <c r="AC66" s="308"/>
+      <c r="AD66" s="308"/>
+      <c r="AE66" s="308"/>
+      <c r="AF66" s="308"/>
+      <c r="AG66" s="308"/>
+      <c r="AH66" s="309"/>
     </row>
     <row r="67" spans="2:34" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="377" t="s">
+      <c r="B67" s="310" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="378"/>
-      <c r="D67" s="378"/>
-      <c r="E67" s="378"/>
-      <c r="F67" s="378"/>
-      <c r="G67" s="378"/>
-      <c r="H67" s="378"/>
-      <c r="I67" s="378"/>
-      <c r="J67" s="378"/>
-      <c r="K67" s="378"/>
-      <c r="L67" s="378"/>
-      <c r="M67" s="378"/>
-      <c r="N67" s="378"/>
-      <c r="O67" s="378"/>
-      <c r="P67" s="379"/>
+      <c r="C67" s="311"/>
+      <c r="D67" s="311"/>
+      <c r="E67" s="311"/>
+      <c r="F67" s="311"/>
+      <c r="G67" s="311"/>
+      <c r="H67" s="311"/>
+      <c r="I67" s="311"/>
+      <c r="J67" s="311"/>
+      <c r="K67" s="311"/>
+      <c r="L67" s="311"/>
+      <c r="M67" s="311"/>
+      <c r="N67" s="311"/>
+      <c r="O67" s="311"/>
+      <c r="P67" s="312"/>
       <c r="Q67" s="177">
         <v>1</v>
       </c>
@@ -14758,21 +14758,21 @@
       <c r="AH67" s="181"/>
     </row>
     <row r="68" spans="2:34" ht="16.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="380"/>
-      <c r="C68" s="381"/>
-      <c r="D68" s="381"/>
-      <c r="E68" s="381"/>
-      <c r="F68" s="381"/>
-      <c r="G68" s="381"/>
-      <c r="H68" s="381"/>
-      <c r="I68" s="381"/>
-      <c r="J68" s="381"/>
-      <c r="K68" s="381"/>
-      <c r="L68" s="381"/>
-      <c r="M68" s="381"/>
-      <c r="N68" s="381"/>
-      <c r="O68" s="381"/>
-      <c r="P68" s="382"/>
+      <c r="B68" s="313"/>
+      <c r="C68" s="314"/>
+      <c r="D68" s="314"/>
+      <c r="E68" s="314"/>
+      <c r="F68" s="314"/>
+      <c r="G68" s="314"/>
+      <c r="H68" s="314"/>
+      <c r="I68" s="314"/>
+      <c r="J68" s="314"/>
+      <c r="K68" s="314"/>
+      <c r="L68" s="314"/>
+      <c r="M68" s="314"/>
+      <c r="N68" s="314"/>
+      <c r="O68" s="314"/>
+      <c r="P68" s="315"/>
       <c r="Q68" s="182">
         <v>16</v>
       </c>
@@ -14852,12 +14852,12 @@
       <c r="J69" s="214"/>
       <c r="K69" s="214"/>
       <c r="L69" s="214"/>
-      <c r="M69" s="383" t="s">
+      <c r="M69" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="N69" s="383"/>
-      <c r="O69" s="383"/>
-      <c r="P69" s="383"/>
+      <c r="N69" s="316"/>
+      <c r="O69" s="316"/>
+      <c r="P69" s="316"/>
       <c r="Q69" s="186"/>
       <c r="R69" s="186"/>
       <c r="S69" s="186"/>
@@ -14892,12 +14892,12 @@
       <c r="J70" s="190"/>
       <c r="K70" s="190"/>
       <c r="L70" s="190"/>
-      <c r="M70" s="384" t="s">
+      <c r="M70" s="317" t="s">
         <v>8</v>
       </c>
-      <c r="N70" s="384"/>
-      <c r="O70" s="384"/>
-      <c r="P70" s="384"/>
+      <c r="N70" s="317"/>
+      <c r="O70" s="317"/>
+      <c r="P70" s="317"/>
       <c r="Q70" s="191"/>
       <c r="R70" s="191"/>
       <c r="S70" s="191"/>
@@ -14932,12 +14932,12 @@
       <c r="J71" s="190"/>
       <c r="K71" s="190"/>
       <c r="L71" s="190"/>
-      <c r="M71" s="384" t="s">
+      <c r="M71" s="317" t="s">
         <v>9</v>
       </c>
-      <c r="N71" s="384"/>
-      <c r="O71" s="384"/>
-      <c r="P71" s="384"/>
+      <c r="N71" s="317"/>
+      <c r="O71" s="317"/>
+      <c r="P71" s="317"/>
       <c r="Q71" s="191"/>
       <c r="R71" s="191"/>
       <c r="S71" s="191"/>
@@ -14972,12 +14972,12 @@
       <c r="J72" s="190"/>
       <c r="K72" s="190"/>
       <c r="L72" s="190"/>
-      <c r="M72" s="384" t="s">
+      <c r="M72" s="317" t="s">
         <v>10</v>
       </c>
-      <c r="N72" s="384"/>
-      <c r="O72" s="384"/>
-      <c r="P72" s="384"/>
+      <c r="N72" s="317"/>
+      <c r="O72" s="317"/>
+      <c r="P72" s="317"/>
       <c r="Q72" s="191"/>
       <c r="R72" s="191"/>
       <c r="S72" s="191"/>
@@ -15012,12 +15012,12 @@
       <c r="J73" s="190"/>
       <c r="K73" s="190"/>
       <c r="L73" s="190"/>
-      <c r="M73" s="384" t="s">
+      <c r="M73" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="N73" s="384"/>
-      <c r="O73" s="384"/>
-      <c r="P73" s="384"/>
+      <c r="N73" s="317"/>
+      <c r="O73" s="317"/>
+      <c r="P73" s="317"/>
       <c r="Q73" s="191"/>
       <c r="R73" s="191"/>
       <c r="S73" s="191"/>
@@ -15052,12 +15052,12 @@
       <c r="J74" s="190"/>
       <c r="K74" s="190"/>
       <c r="L74" s="190"/>
-      <c r="M74" s="384" t="s">
+      <c r="M74" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="N74" s="384"/>
-      <c r="O74" s="384"/>
-      <c r="P74" s="384"/>
+      <c r="N74" s="317"/>
+      <c r="O74" s="317"/>
+      <c r="P74" s="317"/>
       <c r="Q74" s="191"/>
       <c r="R74" s="191"/>
       <c r="S74" s="191"/>
@@ -15092,12 +15092,12 @@
       <c r="J75" s="190"/>
       <c r="K75" s="190"/>
       <c r="L75" s="190"/>
-      <c r="M75" s="384" t="s">
+      <c r="M75" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="N75" s="384"/>
-      <c r="O75" s="384"/>
-      <c r="P75" s="384"/>
+      <c r="N75" s="317"/>
+      <c r="O75" s="317"/>
+      <c r="P75" s="317"/>
       <c r="Q75" s="191"/>
       <c r="R75" s="191"/>
       <c r="S75" s="191"/>
@@ -15132,12 +15132,12 @@
       <c r="J76" s="195"/>
       <c r="K76" s="195"/>
       <c r="L76" s="195"/>
-      <c r="M76" s="368" t="s">
+      <c r="M76" s="298" t="s">
         <v>13</v>
       </c>
-      <c r="N76" s="369"/>
-      <c r="O76" s="369"/>
-      <c r="P76" s="370"/>
+      <c r="N76" s="299"/>
+      <c r="O76" s="299"/>
+      <c r="P76" s="300"/>
       <c r="Q76" s="196"/>
       <c r="R76" s="196"/>
       <c r="S76" s="196"/>
@@ -15301,42 +15301,42 @@
       <c r="AH80"/>
     </row>
     <row r="81" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="367" t="s">
+      <c r="B81" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="367"/>
-      <c r="D81" s="367"/>
-      <c r="E81" s="367"/>
-      <c r="F81" s="367"/>
-      <c r="G81" s="367"/>
-      <c r="H81" s="367"/>
-      <c r="I81" s="367"/>
-      <c r="J81" s="367"/>
-      <c r="K81" s="367"/>
-      <c r="L81" s="367"/>
-      <c r="M81" s="367"/>
-      <c r="N81" s="367"/>
-      <c r="O81" s="367"/>
+      <c r="C81" s="297"/>
+      <c r="D81" s="297"/>
+      <c r="E81" s="297"/>
+      <c r="F81" s="297"/>
+      <c r="G81" s="297"/>
+      <c r="H81" s="297"/>
+      <c r="I81" s="297"/>
+      <c r="J81" s="297"/>
+      <c r="K81" s="297"/>
+      <c r="L81" s="297"/>
+      <c r="M81" s="297"/>
+      <c r="N81" s="297"/>
+      <c r="O81" s="297"/>
       <c r="P81" s="176"/>
-      <c r="Q81" s="367" t="s">
-        <v>69</v>
-      </c>
-      <c r="R81" s="367"/>
-      <c r="S81" s="367"/>
-      <c r="T81" s="367"/>
-      <c r="U81" s="367"/>
-      <c r="V81" s="367"/>
-      <c r="W81" s="367"/>
+      <c r="Q81" s="297" t="s">
+        <v>68</v>
+      </c>
+      <c r="R81" s="297"/>
+      <c r="S81" s="297"/>
+      <c r="T81" s="297"/>
+      <c r="U81" s="297"/>
+      <c r="V81" s="297"/>
+      <c r="W81" s="297"/>
       <c r="X81" s="176"/>
-      <c r="Y81" s="367" t="s">
+      <c r="Y81" s="297" t="s">
         <v>63</v>
       </c>
-      <c r="Z81" s="367"/>
-      <c r="AA81" s="367"/>
-      <c r="AB81" s="367"/>
-      <c r="AC81" s="367"/>
-      <c r="AD81" s="367"/>
-      <c r="AE81" s="367"/>
+      <c r="Z81" s="297"/>
+      <c r="AA81" s="297"/>
+      <c r="AB81" s="297"/>
+      <c r="AC81" s="297"/>
+      <c r="AD81" s="297"/>
+      <c r="AE81" s="297"/>
       <c r="AF81" s="7"/>
       <c r="AG81" s="7"/>
       <c r="AH81" s="7"/>
@@ -20508,6 +20508,129 @@
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="AH59:AH60"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="AH43:AH44"/>
+    <mergeCell ref="P47:P48"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:O51"/>
+    <mergeCell ref="B57:O57"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="F55:O55"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:O59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:O60"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="F36:O36"/>
+    <mergeCell ref="F16:O16"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:O31"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="AG47:AG48"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:O20"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:O19"/>
+    <mergeCell ref="F40:O40"/>
+    <mergeCell ref="D2:AG2"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="F23:O23"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="F8:R8"/>
+    <mergeCell ref="W8:AH8"/>
+    <mergeCell ref="S4:AC4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="F15:O15"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="W7:AH7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AH11:AH12"/>
+    <mergeCell ref="AG11:AG12"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="F39:O39"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="F35:O35"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:O32"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="AG55:AG56"/>
+    <mergeCell ref="AH55:AH56"/>
+    <mergeCell ref="F52:O52"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:O56"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="F47:O47"/>
+    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="B46:O46"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B49:O49"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AH51:AH52"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="F48:O48"/>
+    <mergeCell ref="AG51:AG52"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:O43"/>
+    <mergeCell ref="B54:O54"/>
+    <mergeCell ref="B53:O53"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="AH19:AH20"/>
+    <mergeCell ref="AH23:AH24"/>
+    <mergeCell ref="AG27:AG28"/>
+    <mergeCell ref="AH27:AH28"/>
+    <mergeCell ref="AG23:AG24"/>
+    <mergeCell ref="F27:O27"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="AG31:AG32"/>
+    <mergeCell ref="AH31:AH32"/>
+    <mergeCell ref="AG39:AG40"/>
+    <mergeCell ref="AH39:AH40"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="AG35:AG36"/>
+    <mergeCell ref="AH35:AH36"/>
+    <mergeCell ref="B41:O41"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="P35:P36"/>
     <mergeCell ref="B42:O42"/>
     <mergeCell ref="F9:R9"/>
     <mergeCell ref="Q81:W81"/>
@@ -20532,129 +20655,6 @@
     <mergeCell ref="B61:O61"/>
     <mergeCell ref="AH47:AH48"/>
     <mergeCell ref="B62:O62"/>
-    <mergeCell ref="AG39:AG40"/>
-    <mergeCell ref="AH39:AH40"/>
-    <mergeCell ref="B38:O38"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="AG35:AG36"/>
-    <mergeCell ref="AH35:AH36"/>
-    <mergeCell ref="B41:O41"/>
-    <mergeCell ref="P39:P40"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="P35:P36"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="AH19:AH20"/>
-    <mergeCell ref="AH23:AH24"/>
-    <mergeCell ref="AG27:AG28"/>
-    <mergeCell ref="AH27:AH28"/>
-    <mergeCell ref="AG23:AG24"/>
-    <mergeCell ref="F27:O27"/>
-    <mergeCell ref="F24:O24"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="AG31:AG32"/>
-    <mergeCell ref="AH31:AH32"/>
-    <mergeCell ref="P55:P56"/>
-    <mergeCell ref="AG55:AG56"/>
-    <mergeCell ref="AH55:AH56"/>
-    <mergeCell ref="F52:O52"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:O56"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:O47"/>
-    <mergeCell ref="B50:O50"/>
-    <mergeCell ref="B46:O46"/>
-    <mergeCell ref="B45:O45"/>
-    <mergeCell ref="B49:O49"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AH51:AH52"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="F48:O48"/>
-    <mergeCell ref="AG51:AG52"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:O43"/>
-    <mergeCell ref="B54:O54"/>
-    <mergeCell ref="B53:O53"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="F39:O39"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="F35:O35"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:O32"/>
-    <mergeCell ref="F8:R8"/>
-    <mergeCell ref="W8:AH8"/>
-    <mergeCell ref="S4:AC4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="F15:O15"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="W7:AH7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AH11:AH12"/>
-    <mergeCell ref="AG11:AG12"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:O20"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:O19"/>
-    <mergeCell ref="F40:O40"/>
-    <mergeCell ref="D2:AG2"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="F23:O23"/>
-    <mergeCell ref="F11:O11"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="AH59:AH60"/>
-    <mergeCell ref="B34:O34"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="AH43:AH44"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:O51"/>
-    <mergeCell ref="B57:O57"/>
-    <mergeCell ref="B58:O58"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="F55:O55"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:O59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:O60"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="F36:O36"/>
-    <mergeCell ref="F16:O16"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:O31"/>
-    <mergeCell ref="F28:O28"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="AG47:AG48"/>
-    <mergeCell ref="B48:E48"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
